--- a/data/etc/2014/duplicates.xlsx
+++ b/data/etc/2014/duplicates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038616" uniqueCount="2893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047862" uniqueCount="2893">
   <si>
     <t>submissiondate</t>
   </si>

--- a/data/etc/2014/duplicates.xlsx
+++ b/data/etc/2014/duplicates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047862" uniqueCount="2893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084846" uniqueCount="3158">
   <si>
     <t>submissiondate</t>
   </si>
@@ -8697,6 +8697,801 @@
   </si>
   <si>
     <t>note_inf</t>
+  </si>
+  <si>
+    <t>11/17/2015 15:02</t>
+  </si>
+  <si>
+    <t>11/25/2015 15:56</t>
+  </si>
+  <si>
+    <t>11/12/2015 19:51</t>
+  </si>
+  <si>
+    <t>11/25/2015 17:41</t>
+  </si>
+  <si>
+    <t>11/11/2015 22:16</t>
+  </si>
+  <si>
+    <t>11/25/2015 13:28</t>
+  </si>
+  <si>
+    <t>11/24/2015 12:33</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:35</t>
+  </si>
+  <si>
+    <t>11/13/2015 8:47</t>
+  </si>
+  <si>
+    <t>11/25/2015 8:27</t>
+  </si>
+  <si>
+    <t>11/25/2015 16:20</t>
+  </si>
+  <si>
+    <t>11/5/2015 1:24</t>
+  </si>
+  <si>
+    <t>11/15/2015 21:53</t>
+  </si>
+  <si>
+    <t>11/25/2015 14:32</t>
+  </si>
+  <si>
+    <t>11/10/2015 21:06</t>
+  </si>
+  <si>
+    <t>12/8/2015 11:25</t>
+  </si>
+  <si>
+    <t>11/26/2015 14:08</t>
+  </si>
+  <si>
+    <t>11/5/2015 20:08</t>
+  </si>
+  <si>
+    <t>11/25/2015 11:21</t>
+  </si>
+  <si>
+    <t>11/6/2015 21:11</t>
+  </si>
+  <si>
+    <t>11/26/2015 14:55</t>
+  </si>
+  <si>
+    <t>11/6/2015 8:34</t>
+  </si>
+  <si>
+    <t>11/10/2015 15:02</t>
+  </si>
+  <si>
+    <t>11/24/2015 17:46</t>
+  </si>
+  <si>
+    <t>11/5/2015 21:53</t>
+  </si>
+  <si>
+    <t>12/3/2015 9:37</t>
+  </si>
+  <si>
+    <t>11/23/2015 20:02</t>
+  </si>
+  <si>
+    <t>11/26/2015 14:09</t>
+  </si>
+  <si>
+    <t>11/26/2015 13:24</t>
+  </si>
+  <si>
+    <t>11/6/2015 23:15</t>
+  </si>
+  <si>
+    <t>11/14/2015 12:11</t>
+  </si>
+  <si>
+    <t>11/25/2015 10:27</t>
+  </si>
+  <si>
+    <t>11/5/2015 23:04</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:10</t>
+  </si>
+  <si>
+    <t>11/9/2015 8:44</t>
+  </si>
+  <si>
+    <t>11/2/2015 17:23</t>
+  </si>
+  <si>
+    <t>11/6/2015 20:02</t>
+  </si>
+  <si>
+    <t>11/10/2015 21:25</t>
+  </si>
+  <si>
+    <t>11/25/2015 9:44</t>
+  </si>
+  <si>
+    <t>11/23/2015 17:35</t>
+  </si>
+  <si>
+    <t>11/25/2015 12:19</t>
+  </si>
+  <si>
+    <t>11/24/2015 12:38</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:36</t>
+  </si>
+  <si>
+    <t>11/5/2015 19:45</t>
+  </si>
+  <si>
+    <t>11/13/2015 21:43</t>
+  </si>
+  <si>
+    <t>11/25/2015 14:09</t>
+  </si>
+  <si>
+    <t>11/16/2015 15:20</t>
+  </si>
+  <si>
+    <t>11/25/2015 12:54</t>
+  </si>
+  <si>
+    <t>11/8/2015 22:27</t>
+  </si>
+  <si>
+    <t>11/11/2015 8:12</t>
+  </si>
+  <si>
+    <t>11/26/2015 8:53</t>
+  </si>
+  <si>
+    <t>11/16/2015 10:11</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:17</t>
+  </si>
+  <si>
+    <t>11/11/2015 7:52</t>
+  </si>
+  <si>
+    <t>11/26/2015 8:52</t>
+  </si>
+  <si>
+    <t>11/9/2015 21:38</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:20</t>
+  </si>
+  <si>
+    <t>11/5/2015 21:58</t>
+  </si>
+  <si>
+    <t>11/13/2015 9:08</t>
+  </si>
+  <si>
+    <t>11/11/2015 7:05</t>
+  </si>
+  <si>
+    <t>11/25/2015 17:11</t>
+  </si>
+  <si>
+    <t>11/11/2015 8:50</t>
+  </si>
+  <si>
+    <t>11/25/2015 12:11</t>
+  </si>
+  <si>
+    <t>11/4/2015 16:13</t>
+  </si>
+  <si>
+    <t>11/9/2015 9:36</t>
+  </si>
+  <si>
+    <t>11/25/2015 15:58</t>
+  </si>
+  <si>
+    <t>11/4/2015 13:15</t>
+  </si>
+  <si>
+    <t>11/13/2015 8:29</t>
+  </si>
+  <si>
+    <t>11/9/2015 14:14</t>
+  </si>
+  <si>
+    <t>12/8/2015 10:34</t>
+  </si>
+  <si>
+    <t>11/5/2015 9:46</t>
+  </si>
+  <si>
+    <t>11/4/2015 9:00</t>
+  </si>
+  <si>
+    <t>11/26/2015 13:34</t>
+  </si>
+  <si>
+    <t>11/5/2015 10:38</t>
+  </si>
+  <si>
+    <t>11/7/2015 10:06</t>
+  </si>
+  <si>
+    <t>11/24/2015 17:07</t>
+  </si>
+  <si>
+    <t>11/5/2015 14:14</t>
+  </si>
+  <si>
+    <t>12/3/2015 9:10</t>
+  </si>
+  <si>
+    <t>11/6/2015 9:55</t>
+  </si>
+  <si>
+    <t>11/26/2015 12:55</t>
+  </si>
+  <si>
+    <t>11/4/2015 9:05</t>
+  </si>
+  <si>
+    <t>11/10/2015 10:56</t>
+  </si>
+  <si>
+    <t>11/4/2015 13:27</t>
+  </si>
+  <si>
+    <t>11/6/2015 15:22</t>
+  </si>
+  <si>
+    <t>10/28/2015 10:35</t>
+  </si>
+  <si>
+    <t>11/6/2015 7:28</t>
+  </si>
+  <si>
+    <t>11/10/2015 14:40</t>
+  </si>
+  <si>
+    <t>11/6/2015 14:35</t>
+  </si>
+  <si>
+    <t>11/4/2015 10:22</t>
+  </si>
+  <si>
+    <t>11/4/2015 17:18</t>
+  </si>
+  <si>
+    <t>11/4/2015 12:39</t>
+  </si>
+  <si>
+    <t>11/25/2015 13:31</t>
+  </si>
+  <si>
+    <t>11/12/2015 11:19</t>
+  </si>
+  <si>
+    <t>11/5/2015 15:52</t>
+  </si>
+  <si>
+    <t>12/8/2015 10:56</t>
+  </si>
+  <si>
+    <t>11/5/2015 7:59</t>
+  </si>
+  <si>
+    <t>11/6/2015 10:51</t>
+  </si>
+  <si>
+    <t>11/7/2015 14:33</t>
+  </si>
+  <si>
+    <t>11/6/2015 12:58</t>
+  </si>
+  <si>
+    <t>11/5/2015 10:36</t>
+  </si>
+  <si>
+    <t>11/25/2015 14:40</t>
+  </si>
+  <si>
+    <t>11/4/2015 9:19</t>
+  </si>
+  <si>
+    <t>11/17/2015 13:40</t>
+  </si>
+  <si>
+    <t>11/25/2015 15:55</t>
+  </si>
+  <si>
+    <t>11/12/2015 17:58</t>
+  </si>
+  <si>
+    <t>11/25/2015 17:40</t>
+  </si>
+  <si>
+    <t>11/11/2015 15:30</t>
+  </si>
+  <si>
+    <t>11/24/2015 12:32</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:32</t>
+  </si>
+  <si>
+    <t>11/10/2015 22:06</t>
+  </si>
+  <si>
+    <t>11/25/2015 8:26</t>
+  </si>
+  <si>
+    <t>11/25/2015 16:18</t>
+  </si>
+  <si>
+    <t>11/5/2015 0:28</t>
+  </si>
+  <si>
+    <t>11/13/2015 9:41</t>
+  </si>
+  <si>
+    <t>11/25/2015 14:31</t>
+  </si>
+  <si>
+    <t>11/10/2015 14:58</t>
+  </si>
+  <si>
+    <t>11/5/2015 20:04</t>
+  </si>
+  <si>
+    <t>11/25/2015 10:59</t>
+  </si>
+  <si>
+    <t>11/6/2015 21:10</t>
+  </si>
+  <si>
+    <t>11/26/2015 14:51</t>
+  </si>
+  <si>
+    <t>11/6/2015 8:30</t>
+  </si>
+  <si>
+    <t>11/9/2015 8:16</t>
+  </si>
+  <si>
+    <t>11/24/2015 17:43</t>
+  </si>
+  <si>
+    <t>11/5/2015 21:11</t>
+  </si>
+  <si>
+    <t>11/23/2015 20:01</t>
+  </si>
+  <si>
+    <t>11/25/2015 23:12</t>
+  </si>
+  <si>
+    <t>11/26/2015 13:23</t>
+  </si>
+  <si>
+    <t>11/6/2015 23:06</t>
+  </si>
+  <si>
+    <t>11/14/2015 12:07</t>
+  </si>
+  <si>
+    <t>11/25/2015 10:25</t>
+  </si>
+  <si>
+    <t>11/25/2015 11:01</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:09</t>
+  </si>
+  <si>
+    <t>11/6/2015 17:48</t>
+  </si>
+  <si>
+    <t>10/28/2015 13:11</t>
+  </si>
+  <si>
+    <t>11/6/2015 11:47</t>
+  </si>
+  <si>
+    <t>11/10/2015 16:34</t>
+  </si>
+  <si>
+    <t>11/25/2015 9:41</t>
+  </si>
+  <si>
+    <t>11/17/2015 15:07</t>
+  </si>
+  <si>
+    <t>11/25/2015 12:18</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:34</t>
+  </si>
+  <si>
+    <t>11/25/2015 11:02</t>
+  </si>
+  <si>
+    <t>11/5/2015 9:33</t>
+  </si>
+  <si>
+    <t>11/13/2015 21:37</t>
+  </si>
+  <si>
+    <t>11/25/2015 14:07</t>
+  </si>
+  <si>
+    <t>11/16/2015 12:14</t>
+  </si>
+  <si>
+    <t>11/25/2015 12:52</t>
+  </si>
+  <si>
+    <t>11/8/2015 12:13</t>
+  </si>
+  <si>
+    <t>12/8/2015 11:17</t>
+  </si>
+  <si>
+    <t>11/10/2015 11:43</t>
+  </si>
+  <si>
+    <t>11/26/2015 8:51</t>
+  </si>
+  <si>
+    <t>11/13/2015 11:38</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:15</t>
+  </si>
+  <si>
+    <t>11/10/2015 11:57</t>
+  </si>
+  <si>
+    <t>11/26/2015 8:50</t>
+  </si>
+  <si>
+    <t>11/25/2015 11:19</t>
+  </si>
+  <si>
+    <t>11/9/2015 20:17</t>
+  </si>
+  <si>
+    <t>11/24/2015 15:19</t>
+  </si>
+  <si>
+    <t>11/5/2015 12:23</t>
+  </si>
+  <si>
+    <t>11/25/2015 15:57</t>
+  </si>
+  <si>
+    <t>11/5/2015 21:42</t>
+  </si>
+  <si>
+    <t>13-Nov-15</t>
+  </si>
+  <si>
+    <t>11-Nov-15</t>
+  </si>
+  <si>
+    <t>25-Nov-15</t>
+  </si>
+  <si>
+    <t>4-Nov-15</t>
+  </si>
+  <si>
+    <t>9-Nov-15</t>
+  </si>
+  <si>
+    <t>8-Dec-15</t>
+  </si>
+  <si>
+    <t>26-Nov-15</t>
+  </si>
+  <si>
+    <t>5-Nov-15</t>
+  </si>
+  <si>
+    <t>7-Nov-15</t>
+  </si>
+  <si>
+    <t>24-Nov-15</t>
+  </si>
+  <si>
+    <t>3-Dec-15</t>
+  </si>
+  <si>
+    <t>6-Nov-15</t>
+  </si>
+  <si>
+    <t>10-Nov-15</t>
+  </si>
+  <si>
+    <t>28-Oct-15</t>
+  </si>
+  <si>
+    <t>12-Nov-15</t>
+  </si>
+  <si>
+    <t>1-Oct-12</t>
+  </si>
+  <si>
+    <t>1-Feb-10</t>
+  </si>
+  <si>
+    <t>1-Jan-13</t>
+  </si>
+  <si>
+    <t>1-Mar-15</t>
+  </si>
+  <si>
+    <t>1-Mar-14</t>
+  </si>
+  <si>
+    <t>1-Nov-13</t>
+  </si>
+  <si>
+    <t>1-Jan-14</t>
+  </si>
+  <si>
+    <t>1-Jan-10</t>
+  </si>
+  <si>
+    <t>1-Jun-09</t>
+  </si>
+  <si>
+    <t>1-Sep-13</t>
+  </si>
+  <si>
+    <t>1-Oct-13</t>
+  </si>
+  <si>
+    <t>1-Apr-11</t>
+  </si>
+  <si>
+    <t>1-Feb-09</t>
+  </si>
+  <si>
+    <t>1-May-15</t>
+  </si>
+  <si>
+    <t>1-Oct-14</t>
+  </si>
+  <si>
+    <t>1-Nov-14</t>
+  </si>
+  <si>
+    <t>1-Apr-14</t>
+  </si>
+  <si>
+    <t>1-Jun-13</t>
+  </si>
+  <si>
+    <t>1-Apr-15</t>
+  </si>
+  <si>
+    <t>1-Feb-12</t>
+  </si>
+  <si>
+    <t>1-Nov-12</t>
+  </si>
+  <si>
+    <t>1-Nov-15</t>
+  </si>
+  <si>
+    <t>1-Nov-11</t>
+  </si>
+  <si>
+    <t>1-Aug-13</t>
+  </si>
+  <si>
+    <t>1-May-08</t>
+  </si>
+  <si>
+    <t>1-Mar-09</t>
+  </si>
+  <si>
+    <t>1-Mar-11</t>
+  </si>
+  <si>
+    <t>1-Jan-93</t>
+  </si>
+  <si>
+    <t>1-Jun-01</t>
+  </si>
+  <si>
+    <t>1-Jan-08</t>
+  </si>
+  <si>
+    <t>1-May-10</t>
+  </si>
+  <si>
+    <t>1-Jul-13</t>
+  </si>
+  <si>
+    <t>1-Jun-11</t>
+  </si>
+  <si>
+    <t>1-Oct-07</t>
+  </si>
+  <si>
+    <t>1-Jun-12</t>
+  </si>
+  <si>
+    <t>1-Aug-03</t>
+  </si>
+  <si>
+    <t>1-Dec-13</t>
+  </si>
+  <si>
+    <t>1-Feb-11</t>
+  </si>
+  <si>
+    <t>1-Jul-07</t>
+  </si>
+  <si>
+    <t>1-Mar-10</t>
+  </si>
+  <si>
+    <t>1-Dec-10</t>
+  </si>
+  <si>
+    <t>1-Aug-10</t>
+  </si>
+  <si>
+    <t>1-Nov-07</t>
+  </si>
+  <si>
+    <t>1-Jan-15</t>
+  </si>
+  <si>
+    <t>1-Feb-14</t>
+  </si>
+  <si>
+    <t>1-Feb-15</t>
+  </si>
+  <si>
+    <t>1-Jan-09</t>
+  </si>
+  <si>
+    <t>1-Jan-04</t>
+  </si>
+  <si>
+    <t>1-Apr-06</t>
+  </si>
+  <si>
+    <t>1-Nov-06</t>
+  </si>
+  <si>
+    <t>1-Oct-10</t>
+  </si>
+  <si>
+    <t>1-Sep-14</t>
+  </si>
+  <si>
+    <t>1-May-82</t>
+  </si>
+  <si>
+    <t>1-Jan-12</t>
+  </si>
+  <si>
+    <t>1-Jul-11</t>
+  </si>
+  <si>
+    <t>1-Jan-07</t>
+  </si>
+  <si>
+    <t>1-Apr-12</t>
+  </si>
+  <si>
+    <t>1-Jan-06</t>
+  </si>
+  <si>
+    <t>1-Sep-11</t>
+  </si>
+  <si>
+    <t>1-Sep-02</t>
+  </si>
+  <si>
+    <t>1-Jan-11</t>
+  </si>
+  <si>
+    <t>1-May-01</t>
+  </si>
+  <si>
+    <t>1-Mar-12</t>
+  </si>
+  <si>
+    <t>1-Nov-09</t>
+  </si>
+  <si>
+    <t>1-Jun-10</t>
+  </si>
+  <si>
+    <t>1-Jul-14</t>
+  </si>
+  <si>
+    <t>1-May-12</t>
+  </si>
+  <si>
+    <t>1-Feb-04</t>
+  </si>
+  <si>
+    <t>1-Jul-12</t>
+  </si>
+  <si>
+    <t>1-Nov-10</t>
+  </si>
+  <si>
+    <t>1-Jul-08</t>
+  </si>
+  <si>
+    <t>1-Jan-05</t>
+  </si>
+  <si>
+    <t>1-Jul-09</t>
+  </si>
+  <si>
+    <t>1-Jul-15</t>
+  </si>
+  <si>
+    <t>1-Apr-09</t>
+  </si>
+  <si>
+    <t>1-May-14</t>
+  </si>
+  <si>
+    <t>1-Mar-07</t>
+  </si>
+  <si>
+    <t>1-Oct-09</t>
+  </si>
+  <si>
+    <t>1-Dec-09</t>
+  </si>
+  <si>
+    <t>1-May-13</t>
+  </si>
+  <si>
+    <t>1-Feb-87</t>
+  </si>
+  <si>
+    <t>1-Apr-05</t>
+  </si>
+  <si>
+    <t>1-Aug-02</t>
+  </si>
+  <si>
+    <t>1-Apr-08</t>
+  </si>
+  <si>
+    <t>1-Dec-12</t>
+  </si>
+  <si>
+    <t>1-Jan-94</t>
+  </si>
+  <si>
+    <t>1-Apr-13</t>
+  </si>
+  <si>
+    <t>1-Aug-14</t>
+  </si>
+  <si>
+    <t>1-Jun-14</t>
+  </si>
+  <si>
+    <t>1-Jun-15</t>
   </si>
 </sst>
 </file>
@@ -35065,16 +35860,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1555</v>
+        <v>2893</v>
       </c>
       <c r="B2" t="s">
-        <v>1613</v>
+        <v>2951</v>
       </c>
       <c r="C2" t="s">
-        <v>1659</v>
+        <v>2995</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>3053</v>
       </c>
       <c r="E2" t="s">
         <v>648</v>
@@ -35107,13 +35902,13 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R2" s="0">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -35125,7 +35920,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>1794</v>
+        <v>3114</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -35137,7 +35932,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>1811</v>
+        <v>3128</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -35181,7 +35976,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="AV2" s="0">
         <v>1</v>
@@ -35224,7 +36019,7 @@
         <v>0</v>
       </c>
       <c r="BR2" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS2" s="0">
         <v>1</v>
@@ -35552,16 +36347,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1554</v>
+        <v>2894</v>
       </c>
       <c r="B3" t="s">
-        <v>1613</v>
+        <v>2951</v>
       </c>
       <c r="C3" t="s">
-        <v>1658</v>
+        <v>2996</v>
       </c>
       <c r="D3" t="s">
-        <v>641</v>
+        <v>3053</v>
       </c>
       <c r="E3" t="s">
         <v>648</v>
@@ -35594,13 +36389,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R3" s="0">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -35612,7 +36407,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>1794</v>
+        <v>3114</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -35624,7 +36419,7 @@
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>1811</v>
+        <v>3128</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -35668,7 +36463,7 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="AV3" s="0">
         <v>1</v>
@@ -36031,16 +36826,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1556</v>
+        <v>2895</v>
       </c>
       <c r="B4" t="s">
-        <v>1614</v>
+        <v>2952</v>
       </c>
       <c r="C4" t="s">
-        <v>1660</v>
+        <v>2997</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>3054</v>
       </c>
       <c r="E4" t="s">
         <v>662</v>
@@ -36071,13 +36866,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>1750</v>
+        <v>3069</v>
       </c>
       <c r="R4" s="0">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>1772</v>
+        <v>3095</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -36089,7 +36884,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X4" s="0">
         <v>1</v>
@@ -36101,7 +36896,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB4" s="0">
         <v>1</v>
@@ -36113,7 +36908,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>1828</v>
+        <v>3141</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -36149,7 +36944,7 @@
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV4" s="0">
         <v>1</v>
@@ -36510,16 +37305,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1557</v>
+        <v>2896</v>
       </c>
       <c r="B5" t="s">
-        <v>1615</v>
+        <v>2953</v>
       </c>
       <c r="C5" t="s">
-        <v>1661</v>
+        <v>2998</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>3055</v>
       </c>
       <c r="E5" t="s">
         <v>662</v>
@@ -36550,13 +37345,13 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>1750</v>
+        <v>3069</v>
       </c>
       <c r="R5" s="0">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>1772</v>
+        <v>3095</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -36568,7 +37363,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X5" s="0">
         <v>1</v>
@@ -36580,7 +37375,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB5" s="0">
         <v>1</v>
@@ -36592,7 +37387,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -36628,7 +37423,7 @@
         <v>1</v>
       </c>
       <c r="AU5" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV5" s="0">
         <v>1</v>
@@ -36989,16 +37784,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1559</v>
+        <v>2897</v>
       </c>
       <c r="B6" t="s">
-        <v>1617</v>
+        <v>2954</v>
       </c>
       <c r="C6" t="s">
-        <v>1663</v>
+        <v>2999</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>3054</v>
       </c>
       <c r="E6" t="s">
         <v>1333</v>
@@ -37029,13 +37824,13 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R6" s="0">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -37047,7 +37842,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -37059,7 +37854,7 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>1767</v>
+        <v>3092</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -37071,7 +37866,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -37083,7 +37878,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -37111,7 +37906,7 @@
         <v>1</v>
       </c>
       <c r="AU6" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -37154,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="BR6" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS6" s="0">
         <v>1</v>
@@ -37486,16 +38281,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1558</v>
+        <v>2898</v>
       </c>
       <c r="B7" t="s">
-        <v>1616</v>
+        <v>2955</v>
       </c>
       <c r="C7" t="s">
-        <v>1662</v>
+        <v>2898</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>3055</v>
       </c>
       <c r="E7" t="s">
         <v>650</v>
@@ -37526,13 +38321,13 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R7" s="0">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -37544,7 +38339,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -37556,7 +38351,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>1767</v>
+        <v>3092</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -37568,7 +38363,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -37580,7 +38375,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -37608,7 +38403,7 @@
         <v>1</v>
       </c>
       <c r="AU7" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AV7" s="0">
         <v>1</v>
@@ -37651,7 +38446,7 @@
         <v>0</v>
       </c>
       <c r="BR7" t="s">
-        <v>1834</v>
+        <v>3147</v>
       </c>
       <c r="BS7" s="0">
         <v>1</v>
@@ -37981,16 +38776,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1560</v>
+        <v>2899</v>
       </c>
       <c r="B8" t="s">
-        <v>1618</v>
+        <v>2956</v>
       </c>
       <c r="C8" t="s">
-        <v>1664</v>
+        <v>3000</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E8" t="s">
         <v>1723</v>
@@ -38023,13 +38818,13 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>1751</v>
+        <v>3070</v>
       </c>
       <c r="R8" s="0">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>1773</v>
+        <v>3096</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -38041,7 +38836,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>1795</v>
+        <v>3115</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -38053,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>1812</v>
+        <v>3129</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -38073,7 +38868,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
@@ -38101,7 +38896,7 @@
         <v>1</v>
       </c>
       <c r="AU8" t="s">
-        <v>1853</v>
+        <v>3150</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -38238,10 +39033,10 @@
         <v>1</v>
       </c>
       <c r="DF8" s="0">
-        <v>38647</v>
+        <v>38647000</v>
       </c>
       <c r="DG8" s="0">
-        <v>31972</v>
+        <v>31972000</v>
       </c>
       <c r="DH8" s="0">
         <v>85</v>
@@ -38464,16 +39259,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1561</v>
+        <v>2900</v>
       </c>
       <c r="B9" t="s">
-        <v>1618</v>
+        <v>2956</v>
       </c>
       <c r="C9" t="s">
-        <v>1665</v>
+        <v>3001</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E9" t="s">
         <v>1723</v>
@@ -38506,13 +39301,13 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>1751</v>
+        <v>3070</v>
       </c>
       <c r="R9" s="0">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>1773</v>
+        <v>3096</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -38524,7 +39319,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>1795</v>
+        <v>3115</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -38536,7 +39331,7 @@
         <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>1812</v>
+        <v>3129</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -38556,7 +39351,7 @@
         <v>1</v>
       </c>
       <c r="AI9" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -38584,7 +39379,7 @@
         <v>1</v>
       </c>
       <c r="AU9" t="s">
-        <v>1853</v>
+        <v>3150</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -38947,16 +39742,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1562</v>
+        <v>2901</v>
       </c>
       <c r="B10" t="s">
-        <v>1619</v>
+        <v>2957</v>
       </c>
       <c r="C10" t="s">
-        <v>1666</v>
+        <v>3002</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>3057</v>
       </c>
       <c r="E10" t="s">
         <v>82</v>
@@ -38987,13 +39782,13 @@
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>1752</v>
+        <v>3071</v>
       </c>
       <c r="R10" s="0">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>1774</v>
+        <v>3097</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -39005,7 +39800,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X10" s="0">
         <v>1</v>
@@ -39017,7 +39812,7 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB10" s="0">
         <v>0</v>
@@ -39037,7 +39832,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AJ10" s="0">
         <v>1</v>
@@ -39057,7 +39852,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="AR10" s="0">
         <v>1</v>
@@ -39069,7 +39864,7 @@
         <v>1</v>
       </c>
       <c r="AU10" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV10" s="0">
         <v>1</v>
@@ -39438,16 +40233,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1563</v>
+        <v>2902</v>
       </c>
       <c r="B11" t="s">
-        <v>1619</v>
+        <v>2957</v>
       </c>
       <c r="C11" t="s">
-        <v>1667</v>
+        <v>3003</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>3057</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -39478,13 +40273,13 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="R11" s="0">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>1774</v>
+        <v>3097</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -39496,7 +40291,7 @@
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X11" s="0">
         <v>1</v>
@@ -39508,7 +40303,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -39528,7 +40323,7 @@
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AJ11" s="0">
         <v>1</v>
@@ -39548,7 +40343,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="AR11" s="0">
         <v>1</v>
@@ -39560,7 +40355,7 @@
         <v>1</v>
       </c>
       <c r="AU11" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV11" s="0">
         <v>1</v>
@@ -39929,16 +40724,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1564</v>
+        <v>2903</v>
       </c>
       <c r="B12" t="s">
-        <v>1620</v>
+        <v>2958</v>
       </c>
       <c r="C12" t="s">
-        <v>1668</v>
+        <v>3004</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>3055</v>
       </c>
       <c r="E12" t="s">
         <v>80</v>
@@ -39971,13 +40766,13 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="R12" s="0">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>1775</v>
+        <v>3098</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -39989,7 +40784,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>1796</v>
+        <v>3116</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -40001,7 +40796,7 @@
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>1797</v>
+        <v>3117</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -40084,7 +40879,7 @@
         <v>0</v>
       </c>
       <c r="BR12" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="BS12" s="0">
         <v>2</v>
@@ -40412,16 +41207,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1565</v>
+        <v>2904</v>
       </c>
       <c r="B13" t="s">
-        <v>1621</v>
+        <v>2959</v>
       </c>
       <c r="C13" t="s">
-        <v>1669</v>
+        <v>3005</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
@@ -40454,13 +41249,13 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>1752</v>
+        <v>3071</v>
       </c>
       <c r="R13" s="0">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>1775</v>
+        <v>3098</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -40472,7 +41267,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>1796</v>
+        <v>3116</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -40484,7 +41279,7 @@
         <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>1797</v>
+        <v>3117</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -40567,7 +41362,7 @@
         <v>0</v>
       </c>
       <c r="BR13" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="BS13" s="0">
         <v>2</v>
@@ -40895,16 +41690,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1566</v>
+        <v>2905</v>
       </c>
       <c r="B14" t="s">
-        <v>1622</v>
+        <v>2960</v>
       </c>
       <c r="C14" t="s">
-        <v>1670</v>
+        <v>3006</v>
       </c>
       <c r="D14" t="s">
-        <v>641</v>
+        <v>3053</v>
       </c>
       <c r="E14" t="s">
         <v>658</v>
@@ -40935,13 +41730,13 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="R14" s="0">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="T14" s="0">
         <v>1</v>
@@ -40953,7 +41748,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>1797</v>
+        <v>3117</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -40965,7 +41760,7 @@
         <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>1813</v>
+        <v>3130</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -40977,7 +41772,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AF14" s="0">
         <v>1</v>
@@ -41013,7 +41808,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AV14" s="0">
         <v>1</v>
@@ -41056,7 +41851,7 @@
         <v>0</v>
       </c>
       <c r="BR14" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS14" s="0">
         <v>1</v>
@@ -41386,16 +42181,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1567</v>
+        <v>2906</v>
       </c>
       <c r="B15" t="s">
-        <v>1622</v>
+        <v>2960</v>
       </c>
       <c r="C15" t="s">
-        <v>1671</v>
+        <v>3007</v>
       </c>
       <c r="D15" t="s">
-        <v>641</v>
+        <v>3053</v>
       </c>
       <c r="E15" t="s">
         <v>658</v>
@@ -41426,13 +42221,13 @@
         <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="R15" s="0">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="T15" s="0">
         <v>1</v>
@@ -41444,7 +42239,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>1797</v>
+        <v>3117</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -41456,7 +42251,7 @@
         <v>1</v>
       </c>
       <c r="AA15" t="s">
-        <v>1813</v>
+        <v>3130</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -41468,7 +42263,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AF15" s="0">
         <v>1</v>
@@ -41504,7 +42299,7 @@
         <v>1</v>
       </c>
       <c r="AU15" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AV15" s="0">
         <v>1</v>
@@ -41869,16 +42664,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1568</v>
+        <v>2907</v>
       </c>
       <c r="B16" t="s">
-        <v>1623</v>
+        <v>2961</v>
       </c>
       <c r="C16" t="s">
-        <v>1672</v>
+        <v>3008</v>
       </c>
       <c r="D16" t="s">
-        <v>1722</v>
+        <v>3057</v>
       </c>
       <c r="E16" t="s">
         <v>1332</v>
@@ -41904,20 +42699,20 @@
         <v>1</v>
       </c>
       <c r="N16" s="0">
-        <v>66599</v>
+        <v>66</v>
       </c>
       <c r="O16" s="0"/>
       <c r="P16" s="0">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="R16" s="0">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -41929,7 +42724,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X16" s="0">
         <v>1</v>
@@ -41941,7 +42736,7 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB16" s="0">
         <v>1</v>
@@ -41953,7 +42748,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -41989,7 +42784,7 @@
         <v>1</v>
       </c>
       <c r="AU16" t="s">
-        <v>1854</v>
+        <v>3151</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -42006,10 +42801,10 @@
       </c>
       <c r="BA16" s="0"/>
       <c r="BB16" t="s">
-        <v>116</v>
+        <v>1866</v>
       </c>
       <c r="BC16" t="s">
-        <v>116</v>
+        <v>1883</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -42032,7 +42827,7 @@
         <v>0</v>
       </c>
       <c r="BR16" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS16" s="0">
         <v>1</v>
@@ -42155,7 +42950,7 @@
         <v>1993</v>
       </c>
       <c r="DO16" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="DP16" t="s">
         <v>2005</v>
@@ -42167,13 +42962,13 @@
         <v>116</v>
       </c>
       <c r="DS16" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="DT16" t="s">
-        <v>1918</v>
+        <v>2005</v>
       </c>
       <c r="DU16" t="s">
-        <v>1918</v>
+        <v>2005</v>
       </c>
       <c r="DV16" s="0">
         <v>2</v>
@@ -42188,13 +42983,13 @@
         <v>2169</v>
       </c>
       <c r="DZ16" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="EA16" s="0">
         <v>3</v>
       </c>
       <c r="EB16" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="EC16" t="s">
         <v>2234</v>
@@ -42212,13 +43007,13 @@
         <v>116</v>
       </c>
       <c r="EH16" t="s">
-        <v>2303</v>
+        <v>2271</v>
       </c>
       <c r="EI16" t="s">
         <v>2169</v>
       </c>
       <c r="EJ16" t="s">
-        <v>2035</v>
+        <v>2073</v>
       </c>
       <c r="EK16" s="0">
         <v>2</v>
@@ -42227,7 +43022,7 @@
         <v>116</v>
       </c>
       <c r="EM16" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="EN16" t="s">
         <v>2005</v>
@@ -42245,7 +43040,7 @@
         <v>1</v>
       </c>
       <c r="ES16" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="ET16" s="0">
         <v>0</v>
@@ -42276,7 +43071,7 @@
         <v>116</v>
       </c>
       <c r="FD16" t="s">
-        <v>1926</v>
+        <v>2489</v>
       </c>
       <c r="FE16" t="s">
         <v>116</v>
@@ -42330,19 +43125,19 @@
         <v>78010456</v>
       </c>
       <c r="FX16" s="0">
-        <v>12.368343353271484</v>
+        <v>14.097899436950684</v>
       </c>
       <c r="FY16" s="0">
-        <v>-1.5136009454727173</v>
+        <v>-1.6306512355804443</v>
       </c>
       <c r="FZ16" s="0">
-        <v>330.76815795898437</v>
+        <v>325.69589233398438</v>
       </c>
       <c r="GA16" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="GB16" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="GC16" t="s">
         <v>2706</v>
@@ -42351,7 +43146,7 @@
         <v>82015</v>
       </c>
       <c r="GE16" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="GF16" s="0">
         <v>1</v>
@@ -42362,16 +43157,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1569</v>
+        <v>2908</v>
       </c>
       <c r="B17" t="s">
-        <v>1624</v>
+        <v>2962</v>
       </c>
       <c r="C17" t="s">
-        <v>1673</v>
+        <v>2987</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>3058</v>
       </c>
       <c r="E17" t="s">
         <v>1332</v>
@@ -42397,20 +43192,20 @@
         <v>1</v>
       </c>
       <c r="N17" s="0">
-        <v>66</v>
+        <v>66599</v>
       </c>
       <c r="O17" s="0"/>
       <c r="P17" s="0">
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="R17" s="0">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -42422,7 +43217,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X17" s="0">
         <v>1</v>
@@ -42434,7 +43229,7 @@
         <v>1</v>
       </c>
       <c r="AA17" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB17" s="0">
         <v>1</v>
@@ -42446,7 +43241,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -42482,7 +43277,7 @@
         <v>1</v>
       </c>
       <c r="AU17" t="s">
-        <v>1854</v>
+        <v>3151</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -42499,10 +43294,10 @@
       </c>
       <c r="BA17" s="0"/>
       <c r="BB17" t="s">
-        <v>1866</v>
+        <v>116</v>
       </c>
       <c r="BC17" t="s">
-        <v>1883</v>
+        <v>116</v>
       </c>
       <c r="BD17" t="s">
         <v>116</v>
@@ -42525,7 +43320,7 @@
         <v>0</v>
       </c>
       <c r="BR17" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS17" s="0">
         <v>1</v>
@@ -42648,7 +43443,7 @@
         <v>1993</v>
       </c>
       <c r="DO17" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="DP17" t="s">
         <v>2005</v>
@@ -42660,13 +43455,13 @@
         <v>116</v>
       </c>
       <c r="DS17" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="DT17" t="s">
-        <v>2005</v>
+        <v>1918</v>
       </c>
       <c r="DU17" t="s">
-        <v>2005</v>
+        <v>1918</v>
       </c>
       <c r="DV17" s="0">
         <v>2</v>
@@ -42681,13 +43476,13 @@
         <v>2169</v>
       </c>
       <c r="DZ17" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="EA17" s="0">
         <v>3</v>
       </c>
       <c r="EB17" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="EC17" t="s">
         <v>2234</v>
@@ -42705,13 +43500,13 @@
         <v>116</v>
       </c>
       <c r="EH17" t="s">
-        <v>2271</v>
+        <v>2303</v>
       </c>
       <c r="EI17" t="s">
         <v>2169</v>
       </c>
       <c r="EJ17" t="s">
-        <v>2073</v>
+        <v>2035</v>
       </c>
       <c r="EK17" s="0">
         <v>2</v>
@@ -42720,7 +43515,7 @@
         <v>116</v>
       </c>
       <c r="EM17" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="EN17" t="s">
         <v>2005</v>
@@ -42738,7 +43533,7 @@
         <v>1</v>
       </c>
       <c r="ES17" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="ET17" s="0">
         <v>0</v>
@@ -42769,7 +43564,7 @@
         <v>116</v>
       </c>
       <c r="FD17" t="s">
-        <v>2489</v>
+        <v>1926</v>
       </c>
       <c r="FE17" t="s">
         <v>116</v>
@@ -42823,19 +43618,19 @@
         <v>78010456</v>
       </c>
       <c r="FX17" s="0">
-        <v>14.097899436950684</v>
+        <v>12.368343353271484</v>
       </c>
       <c r="FY17" s="0">
-        <v>-1.6306512355804443</v>
+        <v>-1.5136009454727173</v>
       </c>
       <c r="FZ17" s="0">
-        <v>325.69589233398438</v>
+        <v>330.76815795898437</v>
       </c>
       <c r="GA17" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="GB17" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="GC17" t="s">
         <v>2706</v>
@@ -42844,7 +43639,7 @@
         <v>82015</v>
       </c>
       <c r="GE17" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="GF17" s="0">
         <v>1</v>
@@ -42855,16 +43650,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1570</v>
+        <v>2909</v>
       </c>
       <c r="B18" t="s">
-        <v>1625</v>
+        <v>2921</v>
       </c>
       <c r="C18" t="s">
-        <v>1674</v>
+        <v>2909</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>3059</v>
       </c>
       <c r="E18" t="s">
         <v>654</v>
@@ -42897,13 +43692,13 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>1755</v>
+        <v>3075</v>
       </c>
       <c r="R18" s="0">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>1778</v>
+        <v>3101</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -42915,7 +43710,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -42927,7 +43722,7 @@
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>1814</v>
+        <v>3131</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
@@ -42939,7 +43734,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -42951,7 +43746,7 @@
         <v>1</v>
       </c>
       <c r="AI18" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -42979,7 +43774,7 @@
         <v>1</v>
       </c>
       <c r="AU18" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AV18" s="0">
         <v>1</v>
@@ -43022,7 +43817,7 @@
         <v>0</v>
       </c>
       <c r="BR18" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS18" s="0">
         <v>1</v>
@@ -43350,16 +44145,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1571</v>
+        <v>2910</v>
       </c>
       <c r="B19" t="s">
-        <v>1626</v>
+        <v>2963</v>
       </c>
       <c r="C19" t="s">
-        <v>1675</v>
+        <v>3009</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E19" t="s">
         <v>654</v>
@@ -43392,13 +44187,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>1755</v>
+        <v>3075</v>
       </c>
       <c r="R19" s="0">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>1778</v>
+        <v>3101</v>
       </c>
       <c r="T19" s="0">
         <v>0</v>
@@ -43410,7 +44205,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -43422,7 +44217,7 @@
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>1814</v>
+        <v>3131</v>
       </c>
       <c r="AB19" s="0">
         <v>0</v>
@@ -43434,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -43446,7 +44241,7 @@
         <v>1</v>
       </c>
       <c r="AI19" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -43474,7 +44269,7 @@
         <v>1</v>
       </c>
       <c r="AU19" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AV19" s="0">
         <v>1</v>
@@ -43517,7 +44312,7 @@
         <v>0</v>
       </c>
       <c r="BR19" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS19" s="0">
         <v>1</v>
@@ -43847,16 +44642,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1572</v>
+        <v>2911</v>
       </c>
       <c r="B20" t="s">
-        <v>1627</v>
+        <v>2964</v>
       </c>
       <c r="C20" t="s">
-        <v>1676</v>
+        <v>3010</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E20" t="s">
         <v>655</v>
@@ -43889,7 +44684,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>1756</v>
+        <v>3076</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -43903,7 +44698,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="X20" s="0">
         <v>1</v>
@@ -43915,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>1815</v>
+        <v>3132</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -43959,7 +44754,7 @@
         <v>1</v>
       </c>
       <c r="AU20" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AV20" s="0">
         <v>1</v>
@@ -44002,7 +44797,7 @@
         <v>0</v>
       </c>
       <c r="BR20" t="s">
-        <v>1834</v>
+        <v>3147</v>
       </c>
       <c r="BS20" s="0">
         <v>1</v>
@@ -44336,16 +45131,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1573</v>
+        <v>2912</v>
       </c>
       <c r="B21" t="s">
-        <v>1627</v>
+        <v>2964</v>
       </c>
       <c r="C21" t="s">
-        <v>1677</v>
+        <v>3011</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E21" t="s">
         <v>655</v>
@@ -44378,7 +45173,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>1752</v>
+        <v>3071</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
@@ -44392,7 +45187,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="X21" s="0">
         <v>1</v>
@@ -44404,7 +45199,7 @@
         <v>1</v>
       </c>
       <c r="AA21" t="s">
-        <v>1815</v>
+        <v>3132</v>
       </c>
       <c r="AB21" s="0">
         <v>0</v>
@@ -44448,7 +45243,7 @@
         <v>1</v>
       </c>
       <c r="AU21" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AV21" s="0">
         <v>1</v>
@@ -44491,7 +45286,7 @@
         <v>0</v>
       </c>
       <c r="BR21" t="s">
-        <v>1834</v>
+        <v>3147</v>
       </c>
       <c r="BS21" s="0">
         <v>1</v>
@@ -44825,16 +45620,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>2913</v>
       </c>
       <c r="B22" t="s">
-        <v>1629</v>
+        <v>2965</v>
       </c>
       <c r="C22" t="s">
-        <v>1679</v>
+        <v>3012</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>3059</v>
       </c>
       <c r="E22" t="s">
         <v>656</v>
@@ -44867,13 +45662,13 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="R22" s="0">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="T22" s="0">
         <v>1</v>
@@ -44885,7 +45680,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>902</v>
+        <v>3119</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -44897,7 +45692,7 @@
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -44909,7 +45704,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="AF22" s="0">
         <v>0</v>
@@ -44945,7 +45740,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="AV22" s="0">
         <v>1</v>
@@ -44988,7 +45783,7 @@
         <v>0</v>
       </c>
       <c r="BR22" t="s">
-        <v>1855</v>
+        <v>3152</v>
       </c>
       <c r="BS22" s="0">
         <v>1</v>
@@ -45318,16 +46113,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1574</v>
+        <v>2914</v>
       </c>
       <c r="B23" t="s">
-        <v>1628</v>
+        <v>2966</v>
       </c>
       <c r="C23" t="s">
-        <v>1678</v>
+        <v>3013</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E23" t="s">
         <v>657</v>
@@ -45360,13 +46155,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="R23" s="0">
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="T23" s="0">
         <v>1</v>
@@ -45378,7 +46173,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>902</v>
+        <v>3119</v>
       </c>
       <c r="X23" s="0">
         <v>0</v>
@@ -45390,7 +46185,7 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -45402,7 +46197,7 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>1779</v>
+        <v>3102</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -45438,7 +46233,7 @@
         <v>1</v>
       </c>
       <c r="AU23" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="AV23" s="0">
         <v>1</v>
@@ -45481,7 +46276,7 @@
         <v>0</v>
       </c>
       <c r="BR23" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS23" s="0">
         <v>99</v>
@@ -45811,16 +46606,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1576</v>
+        <v>2915</v>
       </c>
       <c r="B24" t="s">
-        <v>1631</v>
+        <v>2967</v>
       </c>
       <c r="C24" t="s">
-        <v>1681</v>
+        <v>3014</v>
       </c>
       <c r="D24" t="s">
-        <v>643</v>
+        <v>3061</v>
       </c>
       <c r="E24" t="s">
         <v>661</v>
@@ -45851,13 +46646,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="R24" s="0">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="T24" s="0">
         <v>1</v>
@@ -45869,7 +46664,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X24" s="0">
         <v>1</v>
@@ -45881,7 +46676,7 @@
         <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -45893,7 +46688,7 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>1775</v>
+        <v>3098</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
@@ -46290,16 +47085,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1575</v>
+        <v>2916</v>
       </c>
       <c r="B25" t="s">
-        <v>1630</v>
+        <v>2968</v>
       </c>
       <c r="C25" t="s">
-        <v>1680</v>
+        <v>3015</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>3062</v>
       </c>
       <c r="E25" t="s">
         <v>653</v>
@@ -46330,13 +47125,13 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="R25" s="0">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="T25" s="0">
         <v>1</v>
@@ -46348,7 +47143,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X25" s="0">
         <v>1</v>
@@ -46360,7 +47155,7 @@
         <v>1</v>
       </c>
       <c r="AA25" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -46372,7 +47167,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>1775</v>
+        <v>3098</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -46769,16 +47564,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1577</v>
+        <v>2917</v>
       </c>
       <c r="B26" t="s">
-        <v>1632</v>
+        <v>2969</v>
       </c>
       <c r="C26" t="s">
-        <v>1682</v>
+        <v>3016</v>
       </c>
       <c r="D26" t="s">
-        <v>646</v>
+        <v>3060</v>
       </c>
       <c r="E26" t="s">
         <v>659</v>
@@ -46809,13 +47604,13 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>1755</v>
+        <v>3075</v>
       </c>
       <c r="R26" s="0">
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>1771</v>
+        <v>3089</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -46827,7 +47622,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="X26" s="0">
         <v>1</v>
@@ -46839,7 +47634,7 @@
         <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>1816</v>
+        <v>3133</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -46883,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AV26" s="0">
         <v>1</v>
@@ -46958,7 +47753,7 @@
         <v>1</v>
       </c>
       <c r="CF26" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="CG26" s="0">
         <v>20</v>
@@ -47055,7 +47850,7 @@
         <v>116</v>
       </c>
       <c r="DS26" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="DT26" t="s">
         <v>1918</v>
@@ -47073,7 +47868,7 @@
         <v>2067</v>
       </c>
       <c r="DY26" t="s">
-        <v>2174</v>
+        <v>2088</v>
       </c>
       <c r="DZ26" t="s">
         <v>1918</v>
@@ -47085,7 +47880,7 @@
         <v>116</v>
       </c>
       <c r="EC26" t="s">
-        <v>2088</v>
+        <v>2237</v>
       </c>
       <c r="ED26" t="s">
         <v>1918</v>
@@ -47115,7 +47910,7 @@
         <v>116</v>
       </c>
       <c r="EM26" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="EN26" t="s">
         <v>1918</v>
@@ -47165,14 +47960,14 @@
         <v>1924</v>
       </c>
       <c r="FE26" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="FF26" s="0">
         <v>1</v>
       </c>
       <c r="FG26" s="0"/>
       <c r="FH26" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="FI26" t="s">
         <v>2550</v>
@@ -47191,7 +47986,7 @@
       </c>
       <c r="FN26" s="0"/>
       <c r="FO26" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="FP26" t="s">
         <v>2597</v>
@@ -47200,35 +47995,37 @@
         <v>71272201</v>
       </c>
       <c r="FR26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS26" t="s">
-        <v>116</v>
+        <v>2611</v>
       </c>
       <c r="FT26" t="s">
-        <v>116</v>
-      </c>
-      <c r="FU26" s="0"/>
+        <v>2559</v>
+      </c>
+      <c r="FU26" s="0">
+        <v>70118802</v>
+      </c>
       <c r="FV26" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="FW26" s="0">
         <v>70920427</v>
       </c>
       <c r="FX26" s="0">
-        <v>12.368583679199219</v>
+        <v>10.765848159790039</v>
       </c>
       <c r="FY26" s="0">
-        <v>-1.5136629343032837</v>
+        <v>-5.268951416015625</v>
       </c>
       <c r="FZ26" s="0">
-        <v>337.98208618164062</v>
+        <v>567.080810546875</v>
       </c>
       <c r="GA26" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="GB26" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="GC26" t="s">
         <v>2711</v>
@@ -47237,7 +48034,7 @@
         <v>82015</v>
       </c>
       <c r="GE26" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="GF26" s="0">
         <v>1</v>
@@ -47248,16 +48045,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1578</v>
+        <v>2918</v>
       </c>
       <c r="B27" t="s">
-        <v>1633</v>
+        <v>2970</v>
       </c>
       <c r="C27" t="s">
-        <v>1683</v>
+        <v>2918</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>3063</v>
       </c>
       <c r="E27" t="s">
         <v>659</v>
@@ -47288,13 +48085,13 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>1755</v>
+        <v>3075</v>
       </c>
       <c r="R27" s="0">
         <v>1</v>
       </c>
       <c r="S27" t="s">
-        <v>907</v>
+        <v>3094</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -47306,7 +48103,7 @@
         <v>1</v>
       </c>
       <c r="W27" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="X27" s="0">
         <v>1</v>
@@ -47318,7 +48115,7 @@
         <v>1</v>
       </c>
       <c r="AA27" t="s">
-        <v>1816</v>
+        <v>3133</v>
       </c>
       <c r="AB27" s="0">
         <v>0</v>
@@ -47362,7 +48159,7 @@
         <v>1</v>
       </c>
       <c r="AU27" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AV27" s="0">
         <v>1</v>
@@ -47437,7 +48234,7 @@
         <v>1</v>
       </c>
       <c r="CF27" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="CG27" s="0">
         <v>20</v>
@@ -47534,7 +48331,7 @@
         <v>116</v>
       </c>
       <c r="DS27" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="DT27" t="s">
         <v>1918</v>
@@ -47552,7 +48349,7 @@
         <v>2067</v>
       </c>
       <c r="DY27" t="s">
-        <v>2088</v>
+        <v>2174</v>
       </c>
       <c r="DZ27" t="s">
         <v>1918</v>
@@ -47564,7 +48361,7 @@
         <v>116</v>
       </c>
       <c r="EC27" t="s">
-        <v>2237</v>
+        <v>2088</v>
       </c>
       <c r="ED27" t="s">
         <v>1918</v>
@@ -47594,7 +48391,7 @@
         <v>116</v>
       </c>
       <c r="EM27" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="EN27" t="s">
         <v>1918</v>
@@ -47644,14 +48441,14 @@
         <v>1924</v>
       </c>
       <c r="FE27" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="FF27" s="0">
         <v>1</v>
       </c>
       <c r="FG27" s="0"/>
       <c r="FH27" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="FI27" t="s">
         <v>2550</v>
@@ -47670,7 +48467,7 @@
       </c>
       <c r="FN27" s="0"/>
       <c r="FO27" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="FP27" t="s">
         <v>2597</v>
@@ -47679,37 +48476,35 @@
         <v>71272201</v>
       </c>
       <c r="FR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS27" t="s">
-        <v>2611</v>
+        <v>116</v>
       </c>
       <c r="FT27" t="s">
-        <v>2559</v>
-      </c>
-      <c r="FU27" s="0">
-        <v>70118802</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="FU27" s="0"/>
       <c r="FV27" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="FW27" s="0">
         <v>70920427</v>
       </c>
       <c r="FX27" s="0">
-        <v>10.765848159790039</v>
+        <v>12.368583679199219</v>
       </c>
       <c r="FY27" s="0">
-        <v>-5.268951416015625</v>
+        <v>-1.5136629343032837</v>
       </c>
       <c r="FZ27" s="0">
-        <v>567.080810546875</v>
+        <v>337.98208618164062</v>
       </c>
       <c r="GA27" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="GB27" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="GC27" t="s">
         <v>2711</v>
@@ -47718,7 +48513,7 @@
         <v>82015</v>
       </c>
       <c r="GE27" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="GF27" s="0">
         <v>1</v>
@@ -47729,16 +48524,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1580</v>
+        <v>2919</v>
       </c>
       <c r="B28" t="s">
-        <v>1634</v>
+        <v>2971</v>
       </c>
       <c r="C28" t="s">
-        <v>1685</v>
+        <v>3017</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E28" t="s">
         <v>654</v>
@@ -47769,13 +48564,13 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>1759</v>
+        <v>3079</v>
       </c>
       <c r="R28" s="0">
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="T28" s="0">
         <v>1</v>
@@ -47787,7 +48582,7 @@
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="X28" s="0">
         <v>1</v>
@@ -47799,7 +48594,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>1817</v>
+        <v>3134</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -47811,7 +48606,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>1817</v>
+        <v>3134</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -47847,7 +48642,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="AV28" s="0">
         <v>1</v>
@@ -47890,7 +48685,7 @@
         <v>1</v>
       </c>
       <c r="BR28" t="s">
-        <v>1911</v>
+        <v>3155</v>
       </c>
       <c r="BS28" s="0">
         <v>1</v>
@@ -48222,16 +49017,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1579</v>
+        <v>2920</v>
       </c>
       <c r="B29" t="s">
-        <v>1634</v>
+        <v>2971</v>
       </c>
       <c r="C29" t="s">
-        <v>1684</v>
+        <v>3018</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E29" t="s">
         <v>654</v>
@@ -48262,13 +49057,13 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>1759</v>
+        <v>3079</v>
       </c>
       <c r="R29" s="0">
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>1776</v>
+        <v>3099</v>
       </c>
       <c r="T29" s="0">
         <v>1</v>
@@ -48280,7 +49075,7 @@
         <v>1</v>
       </c>
       <c r="W29" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="X29" s="0">
         <v>1</v>
@@ -48292,7 +49087,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="s">
-        <v>1817</v>
+        <v>3134</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -48304,7 +49099,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>1817</v>
+        <v>3134</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -48340,7 +49135,7 @@
         <v>1</v>
       </c>
       <c r="AU29" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="AV29" s="0">
         <v>1</v>
@@ -48383,7 +49178,7 @@
         <v>1</v>
       </c>
       <c r="BR29" t="s">
-        <v>1911</v>
+        <v>3155</v>
       </c>
       <c r="BS29" s="0">
         <v>1</v>
@@ -48715,16 +49510,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1582</v>
+        <v>2921</v>
       </c>
       <c r="B30" t="s">
-        <v>1636</v>
+        <v>2972</v>
       </c>
       <c r="C30" t="s">
-        <v>1687</v>
+        <v>3019</v>
       </c>
       <c r="D30" t="s">
-        <v>644</v>
+        <v>3059</v>
       </c>
       <c r="E30" t="s">
         <v>654</v>
@@ -48755,13 +49550,13 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="R30" s="0">
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -48773,7 +49568,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>1799</v>
+        <v>3120</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -48785,7 +49580,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>1818</v>
+        <v>3135</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
@@ -48797,7 +49592,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>1829</v>
+        <v>3142</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -48809,7 +49604,7 @@
         <v>1</v>
       </c>
       <c r="AI30" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -48829,7 +49624,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -48841,7 +49636,7 @@
         <v>1</v>
       </c>
       <c r="AU30" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="AV30" s="0">
         <v>1</v>
@@ -48884,7 +49679,7 @@
         <v>0</v>
       </c>
       <c r="BR30" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="BS30" s="0">
         <v>1</v>
@@ -48985,7 +49780,9 @@
       <c r="DE30" s="0">
         <v>0</v>
       </c>
-      <c r="DF30" s="0"/>
+      <c r="DF30" s="0">
+        <v>923667000</v>
+      </c>
       <c r="DG30" s="0">
         <v>90847000</v>
       </c>
@@ -49212,16 +50009,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1581</v>
+        <v>2922</v>
       </c>
       <c r="B31" t="s">
-        <v>1635</v>
+        <v>2973</v>
       </c>
       <c r="C31" t="s">
-        <v>1686</v>
+        <v>3020</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E31" t="s">
         <v>654</v>
@@ -49252,13 +50049,13 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="R31" s="0">
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -49270,7 +50067,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>1799</v>
+        <v>3120</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -49282,7 +50079,7 @@
         <v>1</v>
       </c>
       <c r="AA31" t="s">
-        <v>1818</v>
+        <v>3135</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
@@ -49294,7 +50091,7 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>1829</v>
+        <v>3142</v>
       </c>
       <c r="AF31" s="0">
         <v>0</v>
@@ -49306,7 +50103,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -49326,7 +50123,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -49338,7 +50135,7 @@
         <v>1</v>
       </c>
       <c r="AU31" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="AV31" s="0">
         <v>1</v>
@@ -49381,7 +50178,7 @@
         <v>0</v>
       </c>
       <c r="BR31" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="BS31" s="0">
         <v>1</v>
@@ -49482,7 +50279,9 @@
       <c r="DE31" s="0">
         <v>0</v>
       </c>
-      <c r="DF31" s="0"/>
+      <c r="DF31" s="0">
+        <v>923667000</v>
+      </c>
       <c r="DG31" s="0">
         <v>90847000</v>
       </c>
@@ -49709,16 +50508,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1583</v>
+        <v>2923</v>
       </c>
       <c r="B32" t="s">
-        <v>1637</v>
+        <v>2974</v>
       </c>
       <c r="C32" t="s">
-        <v>1688</v>
+        <v>3021</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>3065</v>
       </c>
       <c r="E32" t="s">
         <v>82</v>
@@ -49751,13 +50550,13 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R32" s="0">
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>1780</v>
+        <v>3103</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -49769,7 +50568,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>1800</v>
+        <v>3121</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -49781,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>1819</v>
+        <v>3136</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
@@ -49801,7 +50600,7 @@
         <v>1</v>
       </c>
       <c r="AI32" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AJ32" s="0">
         <v>1</v>
@@ -49821,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AR32" s="0">
         <v>1</v>
@@ -49833,7 +50632,7 @@
         <v>1</v>
       </c>
       <c r="AU32" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AV32" s="0">
         <v>1</v>
@@ -49876,7 +50675,7 @@
         <v>0</v>
       </c>
       <c r="BR32" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS32" s="0">
         <v>1</v>
@@ -50208,16 +51007,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1584</v>
+        <v>2924</v>
       </c>
       <c r="B33" t="s">
-        <v>1637</v>
+        <v>2974</v>
       </c>
       <c r="C33" t="s">
-        <v>1689</v>
+        <v>3022</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>3065</v>
       </c>
       <c r="E33" t="s">
         <v>82</v>
@@ -50250,13 +51049,13 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R33" s="0">
         <v>1</v>
       </c>
       <c r="S33" t="s">
-        <v>1780</v>
+        <v>3103</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -50268,7 +51067,7 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>1800</v>
+        <v>3121</v>
       </c>
       <c r="X33" s="0">
         <v>0</v>
@@ -50280,7 +51079,7 @@
         <v>1</v>
       </c>
       <c r="AA33" t="s">
-        <v>1819</v>
+        <v>3136</v>
       </c>
       <c r="AB33" s="0">
         <v>0</v>
@@ -50300,7 +51099,7 @@
         <v>1</v>
       </c>
       <c r="AI33" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AJ33" s="0">
         <v>1</v>
@@ -50320,7 +51119,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AR33" s="0">
         <v>1</v>
@@ -50332,7 +51131,7 @@
         <v>1</v>
       </c>
       <c r="AU33" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="AV33" s="0">
         <v>1</v>
@@ -50375,7 +51174,7 @@
         <v>0</v>
       </c>
       <c r="BR33" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS33" s="0">
         <v>1</v>
@@ -50707,16 +51506,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1585</v>
+        <v>2911</v>
       </c>
       <c r="B34" t="s">
-        <v>1638</v>
+        <v>2975</v>
       </c>
       <c r="C34" t="s">
-        <v>1690</v>
+        <v>3023</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E34" t="s">
         <v>655</v>
@@ -50749,13 +51548,13 @@
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>1760</v>
+        <v>3080</v>
       </c>
       <c r="R34" s="0">
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="T34" s="0">
         <v>1</v>
@@ -50767,7 +51566,7 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>1801</v>
+        <v>3122</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -50779,7 +51578,7 @@
         <v>1</v>
       </c>
       <c r="AA34" t="s">
-        <v>1756</v>
+        <v>3076</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
@@ -50791,7 +51590,7 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AF34" s="0">
         <v>1</v>
@@ -50819,7 +51618,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="s">
-        <v>902</v>
+        <v>3119</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -50831,7 +51630,7 @@
         <v>1</v>
       </c>
       <c r="AU34" t="s">
-        <v>1855</v>
+        <v>3152</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -51196,16 +51995,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1586</v>
+        <v>2925</v>
       </c>
       <c r="B35" t="s">
-        <v>1638</v>
+        <v>2975</v>
       </c>
       <c r="C35" t="s">
-        <v>1691</v>
+        <v>2925</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E35" t="s">
         <v>655</v>
@@ -51238,13 +52037,13 @@
         <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>904</v>
+        <v>3081</v>
       </c>
       <c r="R35" s="0">
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="T35" s="0">
         <v>1</v>
@@ -51256,7 +52055,7 @@
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>1801</v>
+        <v>3122</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -51268,7 +52067,7 @@
         <v>1</v>
       </c>
       <c r="AA35" t="s">
-        <v>1756</v>
+        <v>3076</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -51280,7 +52079,7 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="AF35" s="0">
         <v>1</v>
@@ -51308,7 +52107,7 @@
         <v>1</v>
       </c>
       <c r="AQ35" t="s">
-        <v>902</v>
+        <v>3119</v>
       </c>
       <c r="AR35" s="0">
         <v>0</v>
@@ -51320,7 +52119,7 @@
         <v>1</v>
       </c>
       <c r="AU35" t="s">
-        <v>1855</v>
+        <v>3152</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -51685,16 +52484,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1587</v>
+        <v>2926</v>
       </c>
       <c r="B36" t="s">
-        <v>1639</v>
+        <v>2976</v>
       </c>
       <c r="C36" t="s">
-        <v>1692</v>
+        <v>3024</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E36" t="s">
         <v>653</v>
@@ -51727,13 +52526,13 @@
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="R36" s="0">
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="T36" s="0">
         <v>1</v>
@@ -51745,7 +52544,7 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X36" s="0">
         <v>1</v>
@@ -51757,7 +52556,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB36" s="0">
         <v>1</v>
@@ -51769,7 +52568,7 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -51805,7 +52604,7 @@
         <v>1</v>
       </c>
       <c r="AU36" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV36" s="0">
         <v>1</v>
@@ -51848,7 +52647,7 @@
         <v>0</v>
       </c>
       <c r="BR36" t="s">
-        <v>1912</v>
+        <v>3156</v>
       </c>
       <c r="BS36" s="0">
         <v>1</v>
@@ -52180,16 +52979,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1588</v>
+        <v>2927</v>
       </c>
       <c r="B37" t="s">
-        <v>1639</v>
+        <v>2976</v>
       </c>
       <c r="C37" t="s">
-        <v>1693</v>
+        <v>3025</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E37" t="s">
         <v>653</v>
@@ -52222,13 +53021,13 @@
         <v>1</v>
       </c>
       <c r="Q37" t="s">
-        <v>899</v>
+        <v>3082</v>
       </c>
       <c r="R37" s="0">
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="T37" s="0">
         <v>1</v>
@@ -52240,7 +53039,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="X37" s="0">
         <v>1</v>
@@ -52252,7 +53051,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AB37" s="0">
         <v>1</v>
@@ -52264,7 +53063,7 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -52300,7 +53099,7 @@
         <v>1</v>
       </c>
       <c r="AU37" t="s">
-        <v>1758</v>
+        <v>3078</v>
       </c>
       <c r="AV37" s="0">
         <v>1</v>
@@ -52343,7 +53142,7 @@
         <v>0</v>
       </c>
       <c r="BR37" t="s">
-        <v>1912</v>
+        <v>3156</v>
       </c>
       <c r="BS37" s="0">
         <v>1</v>
@@ -52445,10 +53244,10 @@
         <v>1</v>
       </c>
       <c r="DF37" s="0">
-        <v>24160</v>
+        <v>24160000</v>
       </c>
       <c r="DG37" s="0">
-        <v>19831</v>
+        <v>19831000</v>
       </c>
       <c r="DH37" s="0">
         <v>82</v>
@@ -52675,16 +53474,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1590</v>
+        <v>2928</v>
       </c>
       <c r="B38" t="s">
-        <v>1641</v>
+        <v>2977</v>
       </c>
       <c r="C38" t="s">
-        <v>1695</v>
+        <v>3026</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>3066</v>
       </c>
       <c r="E38" t="s">
         <v>77</v>
@@ -52715,13 +53514,13 @@
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="R38" s="0">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>1782</v>
+        <v>3105</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -52733,7 +53532,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>1782</v>
+        <v>3105</v>
       </c>
       <c r="X38" s="0">
         <v>1</v>
@@ -52745,7 +53544,7 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>1820</v>
+        <v>3137</v>
       </c>
       <c r="AB38" s="0">
         <v>1</v>
@@ -52757,7 +53556,7 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
-        <v>1830</v>
+        <v>3143</v>
       </c>
       <c r="AF38" s="0">
         <v>1</v>
@@ -52769,7 +53568,7 @@
         <v>1</v>
       </c>
       <c r="AI38" t="s">
-        <v>1765</v>
+        <v>3090</v>
       </c>
       <c r="AJ38" s="0">
         <v>1</v>
@@ -52797,7 +53596,7 @@
         <v>1</v>
       </c>
       <c r="AU38" t="s">
-        <v>1789</v>
+        <v>3112</v>
       </c>
       <c r="AV38" s="0">
         <v>1</v>
@@ -53158,16 +53957,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1589</v>
+        <v>2929</v>
       </c>
       <c r="B39" t="s">
-        <v>1640</v>
+        <v>2978</v>
       </c>
       <c r="C39" t="s">
-        <v>1694</v>
+        <v>3027</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
@@ -53198,13 +53997,13 @@
         <v>1</v>
       </c>
       <c r="Q39" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="R39" s="0">
         <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="T39" s="0">
         <v>0</v>
@@ -53216,7 +54015,7 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -53228,7 +54027,7 @@
         <v>1</v>
       </c>
       <c r="AA39" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="AB39" s="0">
         <v>1</v>
@@ -53240,7 +54039,7 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -53252,7 +54051,7 @@
         <v>1</v>
       </c>
       <c r="AI39" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="AJ39" s="0">
         <v>1</v>
@@ -53280,7 +54079,7 @@
         <v>1</v>
       </c>
       <c r="AU39" t="s">
-        <v>1751</v>
+        <v>3070</v>
       </c>
       <c r="AV39" s="0">
         <v>1</v>
@@ -53323,7 +54122,7 @@
         <v>0</v>
       </c>
       <c r="BR39" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="BS39" s="0">
         <v>99</v>
@@ -53655,16 +54454,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1592</v>
+        <v>2930</v>
       </c>
       <c r="B40" t="s">
-        <v>1642</v>
+        <v>2979</v>
       </c>
       <c r="C40" t="s">
-        <v>1697</v>
+        <v>3028</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>3065</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
@@ -53695,7 +54494,7 @@
         <v>1</v>
       </c>
       <c r="Q40" t="s">
-        <v>1750</v>
+        <v>3069</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -53709,7 +54508,7 @@
         <v>1</v>
       </c>
       <c r="W40" t="s">
-        <v>1803</v>
+        <v>3124</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -53721,7 +54520,7 @@
         <v>1</v>
       </c>
       <c r="AA40" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -53804,7 +54603,7 @@
         <v>1</v>
       </c>
       <c r="BR40" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS40" s="0">
         <v>1</v>
@@ -54134,16 +54933,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1591</v>
+        <v>2931</v>
       </c>
       <c r="B41" t="s">
-        <v>1642</v>
+        <v>2979</v>
       </c>
       <c r="C41" t="s">
-        <v>1696</v>
+        <v>3029</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>3065</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
@@ -54174,7 +54973,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>1750</v>
+        <v>3069</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -54188,7 +54987,7 @@
         <v>1</v>
       </c>
       <c r="W41" t="s">
-        <v>1803</v>
+        <v>3124</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -54200,7 +54999,7 @@
         <v>1</v>
       </c>
       <c r="AA41" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -54283,7 +55082,7 @@
         <v>1</v>
       </c>
       <c r="BR41" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="BS41" s="0">
         <v>1</v>
@@ -54613,16 +55412,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1593</v>
+        <v>2932</v>
       </c>
       <c r="B42" t="s">
-        <v>1643</v>
+        <v>2980</v>
       </c>
       <c r="C42" t="s">
-        <v>1698</v>
+        <v>3030</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E42" t="s">
         <v>660</v>
@@ -54655,13 +55454,13 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="R42" s="0">
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>1783</v>
+        <v>3106</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -54673,7 +55472,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="X42" s="0">
         <v>0</v>
@@ -54685,7 +55484,7 @@
         <v>1</v>
       </c>
       <c r="AA42" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -54697,7 +55496,7 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
-        <v>1831</v>
+        <v>3144</v>
       </c>
       <c r="AF42" s="0">
         <v>0</v>
@@ -54709,7 +55508,7 @@
         <v>1</v>
       </c>
       <c r="AI42" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -54737,7 +55536,7 @@
         <v>1</v>
       </c>
       <c r="AU42" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AV42" s="0">
         <v>1</v>
@@ -54780,7 +55579,7 @@
         <v>0</v>
       </c>
       <c r="BR42" t="s">
-        <v>1913</v>
+        <v>3157</v>
       </c>
       <c r="BS42" s="0">
         <v>99</v>
@@ -55106,16 +55905,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1594</v>
+        <v>2933</v>
       </c>
       <c r="B43" t="s">
-        <v>1643</v>
+        <v>2980</v>
       </c>
       <c r="C43" t="s">
-        <v>1699</v>
+        <v>3031</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E43" t="s">
         <v>660</v>
@@ -55148,13 +55947,13 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="R43" s="0">
         <v>1</v>
       </c>
       <c r="S43" t="s">
-        <v>1783</v>
+        <v>3106</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -55166,7 +55965,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -55178,7 +55977,7 @@
         <v>1</v>
       </c>
       <c r="AA43" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -55190,7 +55989,7 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
-        <v>1831</v>
+        <v>3144</v>
       </c>
       <c r="AF43" s="0">
         <v>0</v>
@@ -55202,7 +56001,7 @@
         <v>1</v>
       </c>
       <c r="AI43" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -55230,7 +56029,7 @@
         <v>1</v>
       </c>
       <c r="AU43" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AV43" s="0">
         <v>1</v>
@@ -55273,7 +56072,7 @@
         <v>0</v>
       </c>
       <c r="BR43" t="s">
-        <v>1816</v>
+        <v>3133</v>
       </c>
       <c r="BS43" s="0">
         <v>99</v>
@@ -55599,16 +56398,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1596</v>
+        <v>2934</v>
       </c>
       <c r="B44" t="s">
-        <v>1644</v>
+        <v>2981</v>
       </c>
       <c r="C44" t="s">
-        <v>1701</v>
+        <v>2934</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E44" t="s">
         <v>1723</v>
@@ -55641,13 +56440,13 @@
         <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R44" s="0">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -55659,7 +56458,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -55671,7 +56470,7 @@
         <v>1</v>
       </c>
       <c r="AA44" t="s">
-        <v>1821</v>
+        <v>3138</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -55683,7 +56482,7 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -55695,7 +56494,7 @@
         <v>1</v>
       </c>
       <c r="AI44" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -55723,7 +56522,7 @@
         <v>1</v>
       </c>
       <c r="AU44" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -55766,7 +56565,7 @@
         <v>1</v>
       </c>
       <c r="BR44" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="BS44" s="0">
         <v>1</v>
@@ -55870,10 +56669,10 @@
         <v>1</v>
       </c>
       <c r="DF44" s="0">
-        <v>39829</v>
+        <v>39829000</v>
       </c>
       <c r="DG44" s="0">
-        <v>49550</v>
+        <v>49550000</v>
       </c>
       <c r="DH44" s="0">
         <v>70</v>
@@ -56098,16 +56897,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1595</v>
+        <v>2935</v>
       </c>
       <c r="B45" t="s">
-        <v>1644</v>
+        <v>2981</v>
       </c>
       <c r="C45" t="s">
-        <v>1700</v>
+        <v>3032</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E45" t="s">
         <v>1723</v>
@@ -56140,13 +56939,13 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>1749</v>
+        <v>3068</v>
       </c>
       <c r="R45" s="0">
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -56158,7 +56957,7 @@
         <v>1</v>
       </c>
       <c r="W45" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -56170,7 +56969,7 @@
         <v>1</v>
       </c>
       <c r="AA45" t="s">
-        <v>1821</v>
+        <v>3138</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -56182,7 +56981,7 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -56194,7 +56993,7 @@
         <v>1</v>
       </c>
       <c r="AI45" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -56222,7 +57021,7 @@
         <v>1</v>
       </c>
       <c r="AU45" t="s">
-        <v>1771</v>
+        <v>3094</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -56265,7 +57064,7 @@
         <v>1</v>
       </c>
       <c r="BR45" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="BS45" s="0">
         <v>1</v>
@@ -56597,16 +57396,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1598</v>
+        <v>2911</v>
       </c>
       <c r="B46" t="s">
-        <v>1645</v>
+        <v>2982</v>
       </c>
       <c r="C46" t="s">
-        <v>1703</v>
+        <v>3033</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E46" t="s">
         <v>655</v>
@@ -56639,13 +57438,13 @@
         <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="R46" s="0">
         <v>1</v>
       </c>
       <c r="S46" t="s">
-        <v>1785</v>
+        <v>3108</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -56657,7 +57456,7 @@
         <v>1</v>
       </c>
       <c r="W46" t="s">
-        <v>1804</v>
+        <v>3125</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -56669,7 +57468,7 @@
         <v>1</v>
       </c>
       <c r="AA46" t="s">
-        <v>1751</v>
+        <v>3070</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -56681,7 +57480,7 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
-        <v>1832</v>
+        <v>3145</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -56717,7 +57516,7 @@
         <v>1</v>
       </c>
       <c r="AU46" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -56760,7 +57559,7 @@
         <v>0</v>
       </c>
       <c r="BR46" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS46" s="0">
         <v>1</v>
@@ -57102,16 +57901,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1597</v>
+        <v>2936</v>
       </c>
       <c r="B47" t="s">
-        <v>1645</v>
+        <v>2982</v>
       </c>
       <c r="C47" t="s">
-        <v>1702</v>
+        <v>3034</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E47" t="s">
         <v>655</v>
@@ -57144,13 +57943,13 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>908</v>
+        <v>3086</v>
       </c>
       <c r="R47" s="0">
         <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>1785</v>
+        <v>3108</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -57162,7 +57961,7 @@
         <v>1</v>
       </c>
       <c r="W47" t="s">
-        <v>1804</v>
+        <v>3125</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -57174,7 +57973,7 @@
         <v>1</v>
       </c>
       <c r="AA47" t="s">
-        <v>1751</v>
+        <v>3070</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -57186,7 +57985,7 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
-        <v>1832</v>
+        <v>3145</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -57222,7 +58021,7 @@
         <v>1</v>
       </c>
       <c r="AU47" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AV47" s="0">
         <v>0</v>
@@ -57265,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="BR47" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS47" s="0">
         <v>1</v>
@@ -57607,16 +58406,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1600</v>
+        <v>2937</v>
       </c>
       <c r="B48" t="s">
-        <v>1647</v>
+        <v>2983</v>
       </c>
       <c r="C48" t="s">
-        <v>1705</v>
+        <v>3035</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E48" t="s">
         <v>652</v>
@@ -57649,7 +58448,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>1763</v>
+        <v>3087</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -57671,7 +58470,7 @@
         <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -57691,7 +58490,7 @@
         <v>1</v>
       </c>
       <c r="AI48" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -57758,7 +58557,7 @@
         <v>1</v>
       </c>
       <c r="BR48" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS48" s="0">
         <v>1</v>
@@ -57861,7 +58660,7 @@
         <v>3532830</v>
       </c>
       <c r="DG48" s="0">
-        <v>4843</v>
+        <v>4843000</v>
       </c>
       <c r="DH48" s="0">
         <v>85</v>
@@ -58086,16 +58885,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1599</v>
+        <v>2938</v>
       </c>
       <c r="B49" t="s">
-        <v>1646</v>
+        <v>2984</v>
       </c>
       <c r="C49" t="s">
-        <v>1704</v>
+        <v>3036</v>
       </c>
       <c r="D49" t="s">
-        <v>642</v>
+        <v>3055</v>
       </c>
       <c r="E49" t="s">
         <v>652</v>
@@ -58128,7 +58927,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>1763</v>
+        <v>3087</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -58150,7 +58949,7 @@
         <v>1</v>
       </c>
       <c r="AA49" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -58170,7 +58969,7 @@
         <v>1</v>
       </c>
       <c r="AI49" t="s">
-        <v>1798</v>
+        <v>3118</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -58237,7 +59036,7 @@
         <v>1</v>
       </c>
       <c r="BR49" t="s">
-        <v>1821</v>
+        <v>3138</v>
       </c>
       <c r="BS49" s="0">
         <v>1</v>
@@ -58565,16 +59364,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1601</v>
+        <v>2939</v>
       </c>
       <c r="B50" t="s">
-        <v>1648</v>
+        <v>2985</v>
       </c>
       <c r="C50" t="s">
-        <v>1706</v>
+        <v>3037</v>
       </c>
       <c r="D50" t="s">
-        <v>645</v>
+        <v>3067</v>
       </c>
       <c r="E50" t="s">
         <v>652</v>
@@ -58605,13 +59404,13 @@
         <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="R50" s="0">
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>1786</v>
+        <v>3109</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -58623,7 +59422,7 @@
         <v>1</v>
       </c>
       <c r="W50" t="s">
-        <v>1794</v>
+        <v>3114</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -58635,7 +59434,7 @@
         <v>1</v>
       </c>
       <c r="AA50" t="s">
-        <v>1756</v>
+        <v>3076</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -58647,7 +59446,7 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -58683,7 +59482,7 @@
         <v>1</v>
       </c>
       <c r="AU50" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="AV50" s="0">
         <v>0</v>
@@ -58822,10 +59621,10 @@
         <v>1</v>
       </c>
       <c r="DF50" s="0">
-        <v>39048</v>
+        <v>39048000</v>
       </c>
       <c r="DG50" s="0">
-        <v>30213</v>
+        <v>30213000</v>
       </c>
       <c r="DH50" s="0">
         <v>95</v>
@@ -59046,16 +59845,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1602</v>
+        <v>2940</v>
       </c>
       <c r="B51" t="s">
-        <v>1648</v>
+        <v>2985</v>
       </c>
       <c r="C51" t="s">
-        <v>1707</v>
+        <v>3038</v>
       </c>
       <c r="D51" t="s">
-        <v>645</v>
+        <v>3067</v>
       </c>
       <c r="E51" t="s">
         <v>652</v>
@@ -59086,13 +59885,13 @@
         <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>1764</v>
+        <v>3088</v>
       </c>
       <c r="R51" s="0">
         <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>1786</v>
+        <v>3109</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -59104,7 +59903,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>1794</v>
+        <v>3114</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -59116,7 +59915,7 @@
         <v>1</v>
       </c>
       <c r="AA51" t="s">
-        <v>1756</v>
+        <v>3076</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -59128,7 +59927,7 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>1833</v>
+        <v>3146</v>
       </c>
       <c r="AF51" s="0">
         <v>0</v>
@@ -59164,7 +59963,7 @@
         <v>1</v>
       </c>
       <c r="AU51" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="AV51" s="0">
         <v>0</v>
@@ -59527,19 +60326,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1568</v>
+        <v>2941</v>
       </c>
       <c r="B52" t="s">
-        <v>1650</v>
+        <v>2986</v>
       </c>
       <c r="C52" t="s">
-        <v>1709</v>
+        <v>3039</v>
       </c>
       <c r="D52" t="s">
-        <v>1722</v>
+        <v>3060</v>
       </c>
       <c r="E52" t="s">
-        <v>1332</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s">
         <v>87</v>
@@ -59569,13 +60368,13 @@
         <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>1765</v>
+        <v>3089</v>
       </c>
       <c r="R52" s="0">
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>1787</v>
+        <v>3110</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -59587,7 +60386,7 @@
         <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>1805</v>
+        <v>3126</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -59599,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AA52" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -59635,7 +60434,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AR52" s="0">
         <v>1</v>
@@ -59647,7 +60446,7 @@
         <v>1</v>
       </c>
       <c r="AU52" t="s">
-        <v>1855</v>
+        <v>3152</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -59664,10 +60463,10 @@
       </c>
       <c r="BA52" s="0"/>
       <c r="BB52" t="s">
-        <v>116</v>
+        <v>1877</v>
       </c>
       <c r="BC52" t="s">
-        <v>116</v>
+        <v>1889</v>
       </c>
       <c r="BD52" t="s">
         <v>116</v>
@@ -59690,7 +60489,7 @@
         <v>1</v>
       </c>
       <c r="BR52" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS52" s="0">
         <v>1</v>
@@ -59813,10 +60612,10 @@
         <v>2014</v>
       </c>
       <c r="DO52" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="DP52" t="s">
-        <v>2016</v>
+        <v>2048</v>
       </c>
       <c r="DQ52" s="0">
         <v>2</v>
@@ -59825,13 +60624,13 @@
         <v>116</v>
       </c>
       <c r="DS52" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="DT52" t="s">
         <v>2073</v>
       </c>
       <c r="DU52" t="s">
-        <v>1918</v>
+        <v>2005</v>
       </c>
       <c r="DV52" s="0">
         <v>2</v>
@@ -59843,10 +60642,10 @@
         <v>2067</v>
       </c>
       <c r="DY52" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="DZ52" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="EA52" s="0">
         <v>3</v>
@@ -59876,7 +60675,7 @@
         <v>2326</v>
       </c>
       <c r="EJ52" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="EK52" s="0">
         <v>2</v>
@@ -59888,10 +60687,10 @@
         <v>2377</v>
       </c>
       <c r="EN52" t="s">
-        <v>1918</v>
+        <v>2005</v>
       </c>
       <c r="EO52" t="s">
-        <v>1918</v>
+        <v>2005</v>
       </c>
       <c r="EP52" s="0">
         <v>2</v>
@@ -59911,7 +60710,7 @@
         <v>1</v>
       </c>
       <c r="EW52" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="EX52" t="s">
         <v>2005</v>
@@ -59942,14 +60741,12 @@
       </c>
       <c r="FG52" s="0"/>
       <c r="FH52" t="s">
-        <v>2541</v>
+        <v>1918</v>
       </c>
       <c r="FI52" t="s">
-        <v>2550</v>
-      </c>
-      <c r="FJ52" s="0">
-        <v>0</v>
-      </c>
+        <v>2558</v>
+      </c>
+      <c r="FJ52" s="0"/>
       <c r="FK52" s="0">
         <v>0</v>
       </c>
@@ -59986,19 +60783,19 @@
         <v>78010456</v>
       </c>
       <c r="FX52" s="0">
-        <v>12.368371963500977</v>
+        <v>13.899720191955566</v>
       </c>
       <c r="FY52" s="0">
-        <v>-1.5136440992355347</v>
+        <v>-1.7712427377700806</v>
       </c>
       <c r="FZ52" s="0">
-        <v>329.93612670898437</v>
+        <v>383.39474487304687</v>
       </c>
       <c r="GA52" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="GB52" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="GC52" t="s">
         <v>2724</v>
@@ -60007,7 +60804,7 @@
         <v>82015</v>
       </c>
       <c r="GE52" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="GF52" s="0">
         <v>1</v>
@@ -60018,19 +60815,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1603</v>
+        <v>2908</v>
       </c>
       <c r="B53" t="s">
-        <v>1649</v>
+        <v>2987</v>
       </c>
       <c r="C53" t="s">
-        <v>1708</v>
+        <v>3040</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>3058</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>1332</v>
       </c>
       <c r="F53" t="s">
         <v>87</v>
@@ -60060,13 +60857,13 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>907</v>
+        <v>3090</v>
       </c>
       <c r="R53" s="0">
         <v>1</v>
       </c>
       <c r="S53" t="s">
-        <v>1787</v>
+        <v>3110</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -60078,7 +60875,7 @@
         <v>1</v>
       </c>
       <c r="W53" t="s">
-        <v>1805</v>
+        <v>3126</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -60090,7 +60887,7 @@
         <v>1</v>
       </c>
       <c r="AA53" t="s">
-        <v>1802</v>
+        <v>3123</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -60126,7 +60923,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AR53" s="0">
         <v>1</v>
@@ -60138,7 +60935,7 @@
         <v>1</v>
       </c>
       <c r="AU53" t="s">
-        <v>1855</v>
+        <v>3152</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -60155,10 +60952,10 @@
       </c>
       <c r="BA53" s="0"/>
       <c r="BB53" t="s">
-        <v>1877</v>
+        <v>116</v>
       </c>
       <c r="BC53" t="s">
-        <v>1889</v>
+        <v>116</v>
       </c>
       <c r="BD53" t="s">
         <v>116</v>
@@ -60181,7 +60978,7 @@
         <v>1</v>
       </c>
       <c r="BR53" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS53" s="0">
         <v>1</v>
@@ -60304,10 +61101,10 @@
         <v>2014</v>
       </c>
       <c r="DO53" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="DP53" t="s">
-        <v>2048</v>
+        <v>2016</v>
       </c>
       <c r="DQ53" s="0">
         <v>2</v>
@@ -60316,13 +61113,13 @@
         <v>116</v>
       </c>
       <c r="DS53" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="DT53" t="s">
         <v>2073</v>
       </c>
       <c r="DU53" t="s">
-        <v>2005</v>
+        <v>1918</v>
       </c>
       <c r="DV53" s="0">
         <v>2</v>
@@ -60334,10 +61131,10 @@
         <v>2067</v>
       </c>
       <c r="DY53" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="DZ53" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="EA53" s="0">
         <v>3</v>
@@ -60367,7 +61164,7 @@
         <v>2326</v>
       </c>
       <c r="EJ53" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="EK53" s="0">
         <v>2</v>
@@ -60379,10 +61176,10 @@
         <v>2377</v>
       </c>
       <c r="EN53" t="s">
-        <v>2005</v>
+        <v>1918</v>
       </c>
       <c r="EO53" t="s">
-        <v>2005</v>
+        <v>1918</v>
       </c>
       <c r="EP53" s="0">
         <v>2</v>
@@ -60402,7 +61199,7 @@
         <v>1</v>
       </c>
       <c r="EW53" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="EX53" t="s">
         <v>2005</v>
@@ -60433,12 +61230,14 @@
       </c>
       <c r="FG53" s="0"/>
       <c r="FH53" t="s">
-        <v>1918</v>
+        <v>2541</v>
       </c>
       <c r="FI53" t="s">
-        <v>2558</v>
-      </c>
-      <c r="FJ53" s="0"/>
+        <v>2550</v>
+      </c>
+      <c r="FJ53" s="0">
+        <v>0</v>
+      </c>
       <c r="FK53" s="0">
         <v>0</v>
       </c>
@@ -60475,19 +61274,19 @@
         <v>78010456</v>
       </c>
       <c r="FX53" s="0">
-        <v>13.899720191955566</v>
+        <v>12.368371963500977</v>
       </c>
       <c r="FY53" s="0">
-        <v>-1.7712427377700806</v>
+        <v>-1.5136440992355347</v>
       </c>
       <c r="FZ53" s="0">
-        <v>383.39474487304687</v>
+        <v>329.93612670898437</v>
       </c>
       <c r="GA53" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="GB53" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="GC53" t="s">
         <v>2724</v>
@@ -60496,7 +61295,7 @@
         <v>82015</v>
       </c>
       <c r="GE53" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="GF53" s="0">
         <v>1</v>
@@ -60507,16 +61306,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1605</v>
+        <v>2942</v>
       </c>
       <c r="B54" t="s">
-        <v>1651</v>
+        <v>2988</v>
       </c>
       <c r="C54" t="s">
-        <v>1711</v>
+        <v>3041</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E54" t="s">
         <v>1724</v>
@@ -60549,7 +61348,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>1765</v>
+        <v>3090</v>
       </c>
       <c r="R54" s="0">
         <v>0</v>
@@ -60563,7 +61362,7 @@
         <v>1</v>
       </c>
       <c r="W54" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="X54" s="0">
         <v>0</v>
@@ -60575,7 +61374,7 @@
         <v>1</v>
       </c>
       <c r="AA54" t="s">
-        <v>1822</v>
+        <v>3139</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
@@ -60595,7 +61394,7 @@
         <v>1</v>
       </c>
       <c r="AI54" t="s">
-        <v>1820</v>
+        <v>3137</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -60623,7 +61422,7 @@
         <v>1</v>
       </c>
       <c r="AU54" t="s">
-        <v>1788</v>
+        <v>3113</v>
       </c>
       <c r="AV54" s="0">
         <v>1</v>
@@ -60666,7 +61465,7 @@
         <v>0</v>
       </c>
       <c r="BR54" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS54" s="0">
         <v>1</v>
@@ -60996,16 +61795,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1604</v>
+        <v>2943</v>
       </c>
       <c r="B55" t="s">
-        <v>1651</v>
+        <v>2988</v>
       </c>
       <c r="C55" t="s">
-        <v>1710</v>
+        <v>3042</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E55" t="s">
         <v>1724</v>
@@ -61038,7 +61837,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>1765</v>
+        <v>3090</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -61052,7 +61851,7 @@
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -61064,7 +61863,7 @@
         <v>1</v>
       </c>
       <c r="AA55" t="s">
-        <v>1822</v>
+        <v>3139</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -61084,7 +61883,7 @@
         <v>1</v>
       </c>
       <c r="AI55" t="s">
-        <v>1820</v>
+        <v>3137</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -61151,7 +61950,7 @@
         <v>0</v>
       </c>
       <c r="BR55" t="s">
-        <v>1910</v>
+        <v>3154</v>
       </c>
       <c r="BS55" s="0">
         <v>1</v>
@@ -61481,16 +62280,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1607</v>
+        <v>2944</v>
       </c>
       <c r="B56" t="s">
-        <v>1652</v>
+        <v>2989</v>
       </c>
       <c r="C56" t="s">
-        <v>1713</v>
+        <v>3043</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E56" t="s">
         <v>653</v>
@@ -61523,7 +62322,7 @@
         <v>1</v>
       </c>
       <c r="Q56" t="s">
-        <v>1766</v>
+        <v>3091</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -61537,7 +62336,7 @@
         <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -61549,7 +62348,7 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -61561,7 +62360,7 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
-        <v>1834</v>
+        <v>3147</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -61573,7 +62372,7 @@
         <v>1</v>
       </c>
       <c r="AI56" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -61601,7 +62400,7 @@
         <v>1</v>
       </c>
       <c r="AU56" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -61644,7 +62443,7 @@
         <v>0</v>
       </c>
       <c r="BR56" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="BS56" s="0">
         <v>1</v>
@@ -61746,10 +62545,10 @@
         <v>1</v>
       </c>
       <c r="DF56" s="0">
-        <v>54310</v>
+        <v>54310000</v>
       </c>
       <c r="DG56" s="0">
-        <v>85761</v>
+        <v>85761000</v>
       </c>
       <c r="DH56" s="0">
         <v>51</v>
@@ -61972,16 +62771,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1606</v>
+        <v>2945</v>
       </c>
       <c r="B57" t="s">
-        <v>1652</v>
+        <v>2989</v>
       </c>
       <c r="C57" t="s">
-        <v>1712</v>
+        <v>3044</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E57" t="s">
         <v>653</v>
@@ -62014,7 +62813,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="s">
-        <v>1766</v>
+        <v>3091</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -62028,7 +62827,7 @@
         <v>1</v>
       </c>
       <c r="W57" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -62040,7 +62839,7 @@
         <v>1</v>
       </c>
       <c r="AA57" t="s">
-        <v>1784</v>
+        <v>3107</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -62052,7 +62851,7 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
-        <v>1834</v>
+        <v>3147</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -62064,7 +62863,7 @@
         <v>1</v>
       </c>
       <c r="AI57" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -62092,7 +62891,7 @@
         <v>1</v>
       </c>
       <c r="AU57" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
@@ -62135,7 +62934,7 @@
         <v>0</v>
       </c>
       <c r="BR57" t="s">
-        <v>1762</v>
+        <v>3085</v>
       </c>
       <c r="BS57" s="0">
         <v>1</v>
@@ -62463,16 +63262,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1608</v>
+        <v>2946</v>
       </c>
       <c r="B58" t="s">
-        <v>1653</v>
+        <v>2990</v>
       </c>
       <c r="C58" t="s">
-        <v>1714</v>
+        <v>3045</v>
       </c>
       <c r="D58" t="s">
-        <v>643</v>
+        <v>3061</v>
       </c>
       <c r="E58" t="s">
         <v>1724</v>
@@ -62505,13 +63304,13 @@
         <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>1752</v>
+        <v>3071</v>
       </c>
       <c r="R58" s="0">
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>898</v>
+        <v>3111</v>
       </c>
       <c r="T58" s="0">
         <v>1</v>
@@ -62531,7 +63330,7 @@
         <v>1</v>
       </c>
       <c r="AA58" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -62936,16 +63735,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1609</v>
+        <v>2947</v>
       </c>
       <c r="B59" t="s">
-        <v>1653</v>
+        <v>2990</v>
       </c>
       <c r="C59" t="s">
-        <v>1715</v>
+        <v>3046</v>
       </c>
       <c r="D59" t="s">
-        <v>643</v>
+        <v>3061</v>
       </c>
       <c r="E59" t="s">
         <v>1724</v>
@@ -62978,13 +63777,13 @@
         <v>1</v>
       </c>
       <c r="Q59" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="R59" s="0">
         <v>1</v>
       </c>
       <c r="S59" t="s">
-        <v>897</v>
+        <v>3074</v>
       </c>
       <c r="T59" s="0">
         <v>1</v>
@@ -63004,7 +63803,7 @@
         <v>1</v>
       </c>
       <c r="AA59" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -63409,16 +64208,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1572</v>
+        <v>2911</v>
       </c>
       <c r="B60" t="s">
-        <v>1654</v>
+        <v>2991</v>
       </c>
       <c r="C60" t="s">
-        <v>1717</v>
+        <v>3047</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E60" t="s">
         <v>1725</v>
@@ -63451,13 +64250,13 @@
         <v>1</v>
       </c>
       <c r="Q60" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="R60" s="0">
         <v>1</v>
       </c>
       <c r="S60" t="s">
-        <v>1773</v>
+        <v>3096</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -63469,7 +64268,7 @@
         <v>1</v>
       </c>
       <c r="W60" t="s">
-        <v>1806</v>
+        <v>3127</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
@@ -63481,7 +64280,7 @@
         <v>1</v>
       </c>
       <c r="AA60" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -63493,7 +64292,7 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>1835</v>
+        <v>3148</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -63521,7 +64320,7 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="s">
-        <v>1848</v>
+        <v>3149</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -63533,7 +64332,7 @@
         <v>1</v>
       </c>
       <c r="AU60" t="s">
-        <v>1856</v>
+        <v>3153</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -63896,16 +64695,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1610</v>
+        <v>2948</v>
       </c>
       <c r="B61" t="s">
-        <v>1654</v>
+        <v>2991</v>
       </c>
       <c r="C61" t="s">
-        <v>1716</v>
+        <v>3048</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>3064</v>
       </c>
       <c r="E61" t="s">
         <v>1725</v>
@@ -63938,13 +64737,13 @@
         <v>1</v>
       </c>
       <c r="Q61" t="s">
-        <v>1757</v>
+        <v>3077</v>
       </c>
       <c r="R61" s="0">
         <v>1</v>
       </c>
       <c r="S61" t="s">
-        <v>1773</v>
+        <v>3096</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -63956,7 +64755,7 @@
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>1806</v>
+        <v>3127</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -63968,7 +64767,7 @@
         <v>1</v>
       </c>
       <c r="AA61" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -63980,7 +64779,7 @@
         <v>1</v>
       </c>
       <c r="AE61" t="s">
-        <v>1835</v>
+        <v>3148</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -63992,7 +64791,7 @@
         <v>1</v>
       </c>
       <c r="AI61" t="s">
-        <v>1788</v>
+        <v>3113</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -64012,7 +64811,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="s">
-        <v>1848</v>
+        <v>3149</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -64024,7 +64823,7 @@
         <v>1</v>
       </c>
       <c r="AU61" t="s">
-        <v>1856</v>
+        <v>3153</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -64159,7 +64958,7 @@
         <v>1</v>
       </c>
       <c r="DF61" s="0">
-        <v>187167706</v>
+        <v>54310000</v>
       </c>
       <c r="DG61" s="0">
         <v>874277736</v>
@@ -64387,16 +65186,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1611</v>
+        <v>2949</v>
       </c>
       <c r="B62" t="s">
-        <v>1655</v>
+        <v>2992</v>
       </c>
       <c r="C62" t="s">
-        <v>1718</v>
+        <v>3049</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E62" t="s">
         <v>653</v>
@@ -64429,13 +65228,13 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>1767</v>
+        <v>3092</v>
       </c>
       <c r="R62" s="0">
         <v>1</v>
       </c>
       <c r="S62" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="T62" s="0">
         <v>1</v>
@@ -64447,7 +65246,7 @@
         <v>1</v>
       </c>
       <c r="W62" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="X62" s="0">
         <v>0</v>
@@ -64459,7 +65258,7 @@
         <v>1</v>
       </c>
       <c r="AA62" t="s">
-        <v>1823</v>
+        <v>3140</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -64471,7 +65270,7 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -64483,7 +65282,7 @@
         <v>1</v>
       </c>
       <c r="AI62" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -64511,7 +65310,7 @@
         <v>1</v>
       </c>
       <c r="AU62" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -64554,7 +65353,7 @@
         <v>1</v>
       </c>
       <c r="BR62" t="s">
-        <v>1816</v>
+        <v>3133</v>
       </c>
       <c r="BS62" s="0">
         <v>1</v>
@@ -64886,16 +65685,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1262</v>
+        <v>2927</v>
       </c>
       <c r="B63" t="s">
-        <v>1655</v>
+        <v>2992</v>
       </c>
       <c r="C63" t="s">
-        <v>1719</v>
+        <v>3050</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>3060</v>
       </c>
       <c r="E63" t="s">
         <v>653</v>
@@ -64928,13 +65727,13 @@
         <v>1</v>
       </c>
       <c r="Q63" t="s">
-        <v>1767</v>
+        <v>3092</v>
       </c>
       <c r="R63" s="0">
         <v>1</v>
       </c>
       <c r="S63" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="T63" s="0">
         <v>1</v>
@@ -64946,7 +65745,7 @@
         <v>1</v>
       </c>
       <c r="W63" t="s">
-        <v>1777</v>
+        <v>3100</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -64958,7 +65757,7 @@
         <v>1</v>
       </c>
       <c r="AA63" t="s">
-        <v>1823</v>
+        <v>3140</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -64970,7 +65769,7 @@
         <v>1</v>
       </c>
       <c r="AE63" t="s">
-        <v>1761</v>
+        <v>3084</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -64982,7 +65781,7 @@
         <v>1</v>
       </c>
       <c r="AI63" t="s">
-        <v>1753</v>
+        <v>3072</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -65010,7 +65809,7 @@
         <v>1</v>
       </c>
       <c r="AU63" t="s">
-        <v>1781</v>
+        <v>3104</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -65053,7 +65852,7 @@
         <v>1</v>
       </c>
       <c r="BR63" t="s">
-        <v>1816</v>
+        <v>3133</v>
       </c>
       <c r="BS63" s="0">
         <v>1</v>
@@ -65159,10 +65958,10 @@
         <v>1</v>
       </c>
       <c r="DF63" s="0">
-        <v>54333</v>
+        <v>54333000</v>
       </c>
       <c r="DG63" s="0">
-        <v>54299</v>
+        <v>54299000</v>
       </c>
       <c r="DH63" s="0">
         <v>64</v>
@@ -65385,16 +66184,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>2903</v>
       </c>
       <c r="B64" t="s">
-        <v>1657</v>
+        <v>2993</v>
       </c>
       <c r="C64" t="s">
-        <v>1721</v>
+        <v>3051</v>
       </c>
       <c r="D64" t="s">
-        <v>642</v>
+        <v>3055</v>
       </c>
       <c r="E64" t="s">
         <v>80</v>
@@ -65427,13 +66226,13 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="R64" s="0">
         <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>1789</v>
+        <v>3112</v>
       </c>
       <c r="T64" s="0">
         <v>1</v>
@@ -65445,7 +66244,7 @@
         <v>1</v>
       </c>
       <c r="W64" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="X64" s="0">
         <v>1</v>
@@ -65457,7 +66256,7 @@
         <v>1</v>
       </c>
       <c r="AA64" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="AB64" s="0">
         <v>1</v>
@@ -65540,7 +66339,7 @@
         <v>0</v>
       </c>
       <c r="BR64" t="s">
-        <v>903</v>
+        <v>3083</v>
       </c>
       <c r="BS64" s="0">
         <v>1</v>
@@ -65874,16 +66673,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1612</v>
+        <v>2950</v>
       </c>
       <c r="B65" t="s">
-        <v>1656</v>
+        <v>2994</v>
       </c>
       <c r="C65" t="s">
-        <v>1720</v>
+        <v>3052</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>3056</v>
       </c>
       <c r="E65" t="s">
         <v>80</v>
@@ -65916,13 +66715,13 @@
         <v>1</v>
       </c>
       <c r="Q65" t="s">
-        <v>1768</v>
+        <v>3093</v>
       </c>
       <c r="R65" s="0">
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>1788</v>
+        <v>3113</v>
       </c>
       <c r="T65" s="0">
         <v>1</v>
@@ -65934,7 +66733,7 @@
         <v>1</v>
       </c>
       <c r="W65" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="X65" s="0">
         <v>1</v>
@@ -65946,7 +66745,7 @@
         <v>1</v>
       </c>
       <c r="AA65" t="s">
-        <v>1754</v>
+        <v>3073</v>
       </c>
       <c r="AB65" s="0">
         <v>1</v>
@@ -66029,7 +66828,7 @@
         <v>0</v>
       </c>
       <c r="BR65" t="s">
-        <v>907</v>
+        <v>3089</v>
       </c>
       <c r="BS65" s="0">
         <v>1</v>

--- a/data/etc/2014/duplicates.xlsx
+++ b/data/etc/2014/duplicates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084846" uniqueCount="3158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094092" uniqueCount="3158">
   <si>
     <t>submissiondate</t>
   </si>
